--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304470.210299669</v>
+        <v>303843.1678767412</v>
       </c>
     </row>
     <row r="7">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>10.95980415967887</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="D11" t="n">
-        <v>16.1500279415971</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>108.582939057586</v>
+        <v>108.5829390575859</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.260172663732885</v>
+        <v>4.260172663732828</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>36.72024109999219</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>118.0349185126516</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>143.3350179906085</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7169426335314492</v>
+        <v>0.7169426335313923</v>
       </c>
       <c r="V12" t="n">
-        <v>10.53710347578291</v>
+        <v>10.53710347578286</v>
       </c>
       <c r="W12" t="n">
-        <v>23.3281472286566</v>
+        <v>23.32814722865655</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.27407766563947</v>
+        <v>14.27407766563941</v>
       </c>
       <c r="U13" t="n">
-        <v>68.73102716155481</v>
+        <v>68.73102716155475</v>
       </c>
       <c r="V13" t="n">
-        <v>42.55338854679516</v>
+        <v>42.55338854679511</v>
       </c>
       <c r="W13" t="n">
-        <v>67.72027461740842</v>
+        <v>67.72027461740836</v>
       </c>
       <c r="X13" t="n">
-        <v>13.36537661321154</v>
+        <v>13.36537661321148</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.240244369279225</v>
+        <v>4.240244369279168</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>23.52515952538906</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>119.5427432172658</v>
       </c>
       <c r="H14" t="n">
-        <v>108.582939057586</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.260172663732817</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>36.72024109999219</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>118.0349185126516</v>
       </c>
       <c r="W14" t="n">
         <v>143.3350179906085</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7169426335314776</v>
+        <v>0.7169426335313923</v>
       </c>
       <c r="V15" t="n">
-        <v>10.53710347578294</v>
+        <v>10.53710347578286</v>
       </c>
       <c r="W15" t="n">
-        <v>23.32814722865663</v>
+        <v>23.32814722865655</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.27407766563949</v>
+        <v>14.27407766563941</v>
       </c>
       <c r="U16" t="n">
-        <v>68.73102716155483</v>
+        <v>68.73102716155475</v>
       </c>
       <c r="V16" t="n">
-        <v>42.55338854679519</v>
+        <v>42.55338854679511</v>
       </c>
       <c r="W16" t="n">
-        <v>67.72027461740845</v>
+        <v>67.72027461740836</v>
       </c>
       <c r="X16" t="n">
-        <v>13.36537661321157</v>
+        <v>13.36537661321148</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.240244369279253</v>
+        <v>4.240244369279168</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.94560221488675</v>
+        <v>65.94560221488655</v>
       </c>
       <c r="C17" t="n">
         <v>53.95691917256829</v>
@@ -1856,7 +1856,7 @@
         <v>85.85217687497897</v>
       </c>
       <c r="G17" t="n">
-        <v>87.26445761256149</v>
+        <v>87.2644576125615</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>85.85217687497897</v>
       </c>
       <c r="G20" t="n">
-        <v>87.2644576125615</v>
+        <v>87.26445761256139</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>216.6184134117433</v>
+        <v>216.6184134117434</v>
       </c>
       <c r="C26" t="n">
-        <v>204.629730369425</v>
+        <v>204.6297303694252</v>
       </c>
       <c r="D26" t="n">
-        <v>195.611034413953</v>
+        <v>195.6110344139531</v>
       </c>
       <c r="E26" t="n">
-        <v>217.3531719838585</v>
+        <v>217.3531719838587</v>
       </c>
       <c r="F26" t="n">
-        <v>236.5249880718357</v>
+        <v>236.5249880718358</v>
       </c>
       <c r="G26" t="n">
-        <v>237.9372688094182</v>
+        <v>237.9372688094184</v>
       </c>
       <c r="H26" t="n">
-        <v>150.6728111968567</v>
+        <v>150.6728111968569</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>46.35004480300368</v>
+        <v>46.35004480300381</v>
       </c>
       <c r="U26" t="n">
-        <v>78.81011323926305</v>
+        <v>78.81011323926319</v>
       </c>
       <c r="V26" t="n">
-        <v>160.1247906519224</v>
+        <v>160.1247906519226</v>
       </c>
       <c r="W26" t="n">
-        <v>185.4248901298793</v>
+        <v>185.4248901298795</v>
       </c>
       <c r="X26" t="n">
-        <v>204.7251483626259</v>
+        <v>204.7251483626261</v>
       </c>
       <c r="Y26" t="n">
-        <v>216.1217461588247</v>
+        <v>216.1217461588248</v>
       </c>
     </row>
     <row r="27">
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>12.18999306596226</v>
+        <v>12.1899930659624</v>
       </c>
       <c r="U27" t="n">
-        <v>42.80681477280225</v>
+        <v>42.80681477280239</v>
       </c>
       <c r="V27" t="n">
-        <v>52.62697561505371</v>
+        <v>52.62697561505385</v>
       </c>
       <c r="W27" t="n">
-        <v>65.4180193679274</v>
+        <v>65.41801936792754</v>
       </c>
       <c r="X27" t="n">
-        <v>22.45312752988769</v>
+        <v>22.45312752988784</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.11142237582129</v>
+        <v>17.11142237582143</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.235124286440367</v>
+        <v>8.235124286440509</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>34.01527457283475</v>
+        <v>34.01527457283489</v>
       </c>
       <c r="T28" t="n">
-        <v>56.36394980491026</v>
+        <v>56.3639498049104</v>
       </c>
       <c r="U28" t="n">
-        <v>110.8208993008256</v>
+        <v>110.8208993008257</v>
       </c>
       <c r="V28" t="n">
-        <v>84.64326068606596</v>
+        <v>84.6432606860661</v>
       </c>
       <c r="W28" t="n">
-        <v>109.8101467566792</v>
+        <v>109.8101467566794</v>
       </c>
       <c r="X28" t="n">
-        <v>55.45524875248233</v>
+        <v>55.45524875248248</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.33011650855002</v>
+        <v>46.33011650855016</v>
       </c>
     </row>
     <row r="29">
@@ -3035,16 +3035,16 @@
         <v>195.6110344139531</v>
       </c>
       <c r="E32" t="n">
-        <v>217.3531719838587</v>
+        <v>217.3531719838586</v>
       </c>
       <c r="F32" t="n">
         <v>236.5249880718358</v>
       </c>
       <c r="G32" t="n">
-        <v>237.9372688094184</v>
+        <v>237.9372688094183</v>
       </c>
       <c r="H32" t="n">
-        <v>150.6728111968569</v>
+        <v>150.6728111968568</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>46.35004480300378</v>
+        <v>46.35004480300377</v>
       </c>
       <c r="U32" t="n">
-        <v>78.81011323926316</v>
+        <v>78.81011323926313</v>
       </c>
       <c r="V32" t="n">
         <v>160.1247906519225</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>12.18999306596237</v>
+        <v>12.18999306596234</v>
       </c>
       <c r="U33" t="n">
-        <v>42.80681477280236</v>
+        <v>42.80681477280233</v>
       </c>
       <c r="V33" t="n">
-        <v>52.62697561505382</v>
+        <v>52.62697561505379</v>
       </c>
       <c r="W33" t="n">
-        <v>65.41801936792751</v>
+        <v>65.41801936792749</v>
       </c>
       <c r="X33" t="n">
-        <v>22.45312752988781</v>
+        <v>22.45312752988778</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.11142237582141</v>
+        <v>17.11142237582138</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.235124286440481</v>
+        <v>8.235124286440453</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.01527457283486</v>
+        <v>34.01527457283483</v>
       </c>
       <c r="T34" t="n">
-        <v>56.36394980491038</v>
+        <v>56.36394980491035</v>
       </c>
       <c r="U34" t="n">
         <v>110.8208993008257</v>
       </c>
       <c r="V34" t="n">
-        <v>84.64326068606607</v>
+        <v>84.64326068606604</v>
       </c>
       <c r="W34" t="n">
         <v>109.8101467566793</v>
       </c>
       <c r="X34" t="n">
-        <v>55.45524875248245</v>
+        <v>55.45524875248242</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.33011650855013</v>
+        <v>46.33011650855011</v>
       </c>
     </row>
     <row r="35">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.8997156890572</v>
+        <v>172.8997156890573</v>
       </c>
       <c r="C41" t="n">
         <v>160.911032646739</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.631347080317636</v>
+        <v>2.631347080317653</v>
       </c>
       <c r="U41" t="n">
-        <v>35.09141551657699</v>
+        <v>35.09141551657703</v>
       </c>
       <c r="V41" t="n">
         <v>116.4060929292364</v>
@@ -3806,7 +3806,7 @@
         <v>161.0064506399399</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.4030484361386</v>
+        <v>172.4030484361387</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>8.908277892367664</v>
+        <v>8.908277892367693</v>
       </c>
       <c r="W42" t="n">
-        <v>21.69932164524135</v>
+        <v>21.69932164524138</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.64525208222422</v>
+        <v>12.64525208222424</v>
       </c>
       <c r="U43" t="n">
-        <v>67.10220157813956</v>
+        <v>67.10220157813959</v>
       </c>
       <c r="V43" t="n">
-        <v>40.92456296337991</v>
+        <v>40.92456296337994</v>
       </c>
       <c r="W43" t="n">
-        <v>66.09144903399317</v>
+        <v>66.0914490339932</v>
       </c>
       <c r="X43" t="n">
-        <v>11.73655102979629</v>
+        <v>11.73655102979632</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.611418785863975</v>
+        <v>2.611418785864004</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>172.8997156890573</v>
       </c>
       <c r="C44" t="n">
-        <v>160.911032646739</v>
+        <v>160.9110326467391</v>
       </c>
       <c r="D44" t="n">
         <v>151.892336691267</v>
       </c>
       <c r="E44" t="n">
-        <v>173.6344742611725</v>
+        <v>173.6344742611726</v>
       </c>
       <c r="F44" t="n">
         <v>192.8062903491497</v>
       </c>
       <c r="G44" t="n">
-        <v>194.2185710867322</v>
+        <v>194.2185710867323</v>
       </c>
       <c r="H44" t="n">
-        <v>106.9541134741707</v>
+        <v>106.9541134741708</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.631347080317664</v>
+        <v>2.631347080317721</v>
       </c>
       <c r="U44" t="n">
-        <v>35.09141551657702</v>
+        <v>35.09141551657708</v>
       </c>
       <c r="V44" t="n">
-        <v>116.4060929292364</v>
+        <v>116.4060929292365</v>
       </c>
       <c r="W44" t="n">
-        <v>141.7061924071933</v>
+        <v>141.7061924071934</v>
       </c>
       <c r="X44" t="n">
-        <v>161.0064506399399</v>
+        <v>161.00645063994</v>
       </c>
       <c r="Y44" t="n">
         <v>172.4030484361387</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>8.908277892367693</v>
+        <v>8.908277892367749</v>
       </c>
       <c r="W45" t="n">
-        <v>21.69932164524138</v>
+        <v>21.69932164524144</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.64525208222424</v>
+        <v>12.6452520822243</v>
       </c>
       <c r="U46" t="n">
-        <v>67.10220157813959</v>
+        <v>67.10220157813964</v>
       </c>
       <c r="V46" t="n">
-        <v>40.92456296337994</v>
+        <v>40.92456296338</v>
       </c>
       <c r="W46" t="n">
-        <v>66.0914490339932</v>
+        <v>66.09144903399326</v>
       </c>
       <c r="X46" t="n">
-        <v>11.73655102979632</v>
+        <v>11.73655102979637</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.611418785864004</v>
+        <v>2.611418785864061</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>433.5674333250942</v>
+        <v>269.3250041813931</v>
       </c>
       <c r="C11" t="n">
-        <v>433.5674333250942</v>
+        <v>121.3957345746573</v>
       </c>
       <c r="D11" t="n">
-        <v>417.2542737881273</v>
+        <v>121.3957345746573</v>
       </c>
       <c r="E11" t="n">
-        <v>417.2542737881273</v>
+        <v>121.3957345746573</v>
       </c>
       <c r="F11" t="n">
-        <v>269.3250041813924</v>
+        <v>121.3957345746573</v>
       </c>
       <c r="G11" t="n">
-        <v>121.3957345746574</v>
+        <v>121.3957345746573</v>
       </c>
       <c r="H11" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I11" t="n">
-        <v>75.64118274439147</v>
+        <v>75.64118274439151</v>
       </c>
       <c r="J11" t="n">
-        <v>187.2071531304965</v>
+        <v>161.1344766693637</v>
       </c>
       <c r="K11" t="n">
-        <v>187.2071531304965</v>
+        <v>161.1344766693637</v>
       </c>
       <c r="L11" t="n">
-        <v>292.3748847250621</v>
+        <v>161.1344766693637</v>
       </c>
       <c r="M11" t="n">
-        <v>411.0749293586903</v>
+        <v>279.8345213029919</v>
       </c>
       <c r="N11" t="n">
-        <v>428.8946952410317</v>
+        <v>279.8345213029919</v>
       </c>
       <c r="O11" t="n">
-        <v>544.1309342247922</v>
+        <v>279.8345213029919</v>
       </c>
       <c r="P11" t="n">
-        <v>544.1309342247922</v>
+        <v>381.4247163349622</v>
       </c>
       <c r="Q11" t="n">
-        <v>544.1309342247922</v>
+        <v>471.7245388996649</v>
       </c>
       <c r="R11" t="n">
-        <v>544.1309342247922</v>
+        <v>544.1309342247916</v>
       </c>
       <c r="S11" t="n">
-        <v>585.7999076426704</v>
+        <v>585.7999076426698</v>
       </c>
       <c r="T11" t="n">
-        <v>581.4967029318291</v>
+        <v>581.4967029318285</v>
       </c>
       <c r="U11" t="n">
-        <v>581.4967029318291</v>
+        <v>544.4055503055738</v>
       </c>
       <c r="V11" t="n">
-        <v>581.4967029318291</v>
+        <v>425.178359888754</v>
       </c>
       <c r="W11" t="n">
-        <v>581.4967029318291</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="X11" t="n">
-        <v>581.4967029318291</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="Y11" t="n">
-        <v>433.5674333250942</v>
+        <v>280.3955134335939</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="C12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="D12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="E12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="F12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="G12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="J12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="K12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="L12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="M12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="N12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="O12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="P12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="R12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="S12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="T12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="U12" t="n">
-        <v>45.92332209673171</v>
+        <v>45.92332209673158</v>
       </c>
       <c r="V12" t="n">
-        <v>35.27978323230452</v>
+        <v>35.27978323230445</v>
       </c>
       <c r="W12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="X12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="C13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="D13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="E13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="F13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="G13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H13" t="n">
-        <v>70.99068594536109</v>
+        <v>70.99068594536115</v>
       </c>
       <c r="I13" t="n">
-        <v>70.99068594536109</v>
+        <v>150.0337235876539</v>
       </c>
       <c r="J13" t="n">
-        <v>70.99068594536109</v>
+        <v>150.0337235876539</v>
       </c>
       <c r="K13" t="n">
-        <v>70.99068594536109</v>
+        <v>150.0337235876539</v>
       </c>
       <c r="L13" t="n">
-        <v>70.99068594536109</v>
+        <v>150.0337235876539</v>
       </c>
       <c r="M13" t="n">
-        <v>70.99068594536109</v>
+        <v>150.0337235876539</v>
       </c>
       <c r="N13" t="n">
-        <v>215.976163086922</v>
+        <v>150.0337235876539</v>
       </c>
       <c r="O13" t="n">
-        <v>216.7366808791409</v>
+        <v>150.0337235876539</v>
       </c>
       <c r="P13" t="n">
-        <v>216.7366808791409</v>
+        <v>150.0337235876539</v>
       </c>
       <c r="Q13" t="n">
-        <v>216.7366808791409</v>
+        <v>150.0337235876539</v>
       </c>
       <c r="R13" t="n">
-        <v>216.7366808791409</v>
+        <v>224.7305324699123</v>
       </c>
       <c r="S13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699123</v>
       </c>
       <c r="T13" t="n">
-        <v>210.31227220159</v>
+        <v>210.3122722015897</v>
       </c>
       <c r="U13" t="n">
-        <v>140.8869922404235</v>
+        <v>140.8869922404232</v>
       </c>
       <c r="V13" t="n">
-        <v>97.90377148608491</v>
+        <v>97.90377148608474</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49945369072287</v>
+        <v>29.49945369072274</v>
       </c>
       <c r="X13" t="n">
-        <v>15.99907327333747</v>
+        <v>15.99907327333741</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.0877915807753</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="C14" t="n">
-        <v>293.0877915807753</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="D14" t="n">
-        <v>293.0877915807753</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="E14" t="n">
-        <v>269.3250041813924</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="F14" t="n">
-        <v>121.3957345746575</v>
+        <v>132.4662438268593</v>
       </c>
       <c r="G14" t="n">
-        <v>121.3957345746575</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H14" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I14" t="n">
-        <v>11.71599815285341</v>
+        <v>75.64118274439151</v>
       </c>
       <c r="J14" t="n">
-        <v>123.2819685389584</v>
+        <v>187.2071531304966</v>
       </c>
       <c r="K14" t="n">
-        <v>225.2748170556774</v>
+        <v>289.2000016472156</v>
       </c>
       <c r="L14" t="n">
-        <v>225.2748170556774</v>
+        <v>289.2000016472156</v>
       </c>
       <c r="M14" t="n">
-        <v>343.9748616893055</v>
+        <v>321.5034947208702</v>
       </c>
       <c r="N14" t="n">
-        <v>464.8909768648298</v>
+        <v>321.5034947208702</v>
       </c>
       <c r="O14" t="n">
-        <v>580.1272158485903</v>
+        <v>321.5034947208702</v>
       </c>
       <c r="P14" t="n">
-        <v>580.1272158485903</v>
+        <v>423.0936897528405</v>
       </c>
       <c r="Q14" t="n">
-        <v>580.1272158485903</v>
+        <v>513.3935123175431</v>
       </c>
       <c r="R14" t="n">
-        <v>585.7999076426704</v>
+        <v>585.7999076426698</v>
       </c>
       <c r="S14" t="n">
-        <v>585.7999076426704</v>
+        <v>585.7999076426698</v>
       </c>
       <c r="T14" t="n">
-        <v>585.7999076426704</v>
+        <v>581.4967029318286</v>
       </c>
       <c r="U14" t="n">
-        <v>585.7999076426704</v>
+        <v>544.4055503055738</v>
       </c>
       <c r="V14" t="n">
-        <v>585.7999076426704</v>
+        <v>425.178359888754</v>
       </c>
       <c r="W14" t="n">
-        <v>441.0170611875102</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="X14" t="n">
-        <v>441.0170611875102</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.0877915807753</v>
+        <v>280.3955134335939</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="C15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="D15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="E15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="F15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="G15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="H15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="I15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="J15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="K15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="L15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="M15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="N15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="O15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
       <c r="P15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.64750657504639</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="R15" t="n">
-        <v>46.64750657504639</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="S15" t="n">
-        <v>46.64750657504639</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="T15" t="n">
-        <v>46.64750657504639</v>
+        <v>46.64750657504612</v>
       </c>
       <c r="U15" t="n">
-        <v>45.92332209673177</v>
+        <v>45.92332209673158</v>
       </c>
       <c r="V15" t="n">
-        <v>35.27978323230455</v>
+        <v>35.27978323230445</v>
       </c>
       <c r="W15" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="X15" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.71599815285341</v>
+        <v>36.44466341866846</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="C16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="D16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="E16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="F16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="G16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="J16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="K16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="L16" t="n">
-        <v>151.0338664444526</v>
+        <v>147.4552291869468</v>
       </c>
       <c r="M16" t="n">
-        <v>151.0338664444526</v>
+        <v>147.4552291869468</v>
       </c>
       <c r="N16" t="n">
-        <v>151.0338664444526</v>
+        <v>147.4552291869468</v>
       </c>
       <c r="O16" t="n">
-        <v>216.7366808791411</v>
+        <v>147.4552291869468</v>
       </c>
       <c r="P16" t="n">
-        <v>216.7366808791411</v>
+        <v>147.4552291869468</v>
       </c>
       <c r="Q16" t="n">
-        <v>216.7366808791411</v>
+        <v>147.4552291869468</v>
       </c>
       <c r="R16" t="n">
-        <v>216.7366808791411</v>
+        <v>224.7305324699123</v>
       </c>
       <c r="S16" t="n">
-        <v>224.7305324699128</v>
+        <v>224.7305324699123</v>
       </c>
       <c r="T16" t="n">
-        <v>210.3122722015901</v>
+        <v>210.3122722015897</v>
       </c>
       <c r="U16" t="n">
-        <v>140.8869922404236</v>
+        <v>140.8869922404232</v>
       </c>
       <c r="V16" t="n">
-        <v>97.90377148608499</v>
+        <v>97.90377148608474</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49945369072292</v>
+        <v>29.49945369072274</v>
       </c>
       <c r="X16" t="n">
-        <v>15.9990732733375</v>
+        <v>15.99907327333741</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
     </row>
     <row r="17">
@@ -5489,73 +5489,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.8292685207389</v>
+        <v>353.8292685207391</v>
       </c>
       <c r="C17" t="n">
         <v>299.3273299625891</v>
       </c>
       <c r="D17" t="n">
-        <v>253.9351852988556</v>
+        <v>253.9351852988557</v>
       </c>
       <c r="E17" t="n">
-        <v>186.5812855140053</v>
+        <v>186.5812855140054</v>
       </c>
       <c r="F17" t="n">
-        <v>99.86191493321854</v>
+        <v>99.86191493321856</v>
       </c>
       <c r="G17" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H17" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I17" t="n">
-        <v>11.71599815285341</v>
+        <v>156.7014752944142</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7014752944143</v>
+        <v>266.3908207931768</v>
       </c>
       <c r="K17" t="n">
-        <v>301.6869524359753</v>
+        <v>266.3908207931768</v>
       </c>
       <c r="L17" t="n">
-        <v>301.6869524359753</v>
+        <v>266.3908207931768</v>
       </c>
       <c r="M17" t="n">
-        <v>301.6869524359753</v>
+        <v>266.3908207931768</v>
       </c>
       <c r="N17" t="n">
-        <v>301.6869524359753</v>
+        <v>266.3908207931768</v>
       </c>
       <c r="O17" t="n">
-        <v>337.534891771195</v>
+        <v>266.3908207931768</v>
       </c>
       <c r="P17" t="n">
-        <v>482.5203689127559</v>
+        <v>266.3908207931768</v>
       </c>
       <c r="Q17" t="n">
-        <v>482.5203689127559</v>
+        <v>266.3908207931768</v>
       </c>
       <c r="R17" t="n">
-        <v>482.5203689127559</v>
+        <v>266.3908207931768</v>
       </c>
       <c r="S17" t="n">
-        <v>482.5203689127559</v>
+        <v>411.3762979347375</v>
       </c>
       <c r="T17" t="n">
-        <v>585.7999076426704</v>
+        <v>514.655836664652</v>
       </c>
       <c r="U17" t="n">
-        <v>585.7999076426704</v>
+        <v>585.7999076426698</v>
       </c>
       <c r="V17" t="n">
-        <v>576.2524536476546</v>
+        <v>576.2524536476544</v>
       </c>
       <c r="W17" t="n">
         <v>541.1493436142985</v>
       </c>
       <c r="X17" t="n">
-        <v>486.5510232448347</v>
+        <v>486.5510232448346</v>
       </c>
       <c r="Y17" t="n">
         <v>420.4409879297154</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="C18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="D18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="E18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="F18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="G18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="J18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="K18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="L18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="M18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="N18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="O18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="P18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="R18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="S18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="T18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="U18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="V18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="W18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="X18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="C19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="D19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="E19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="F19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="G19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="J19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="K19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="L19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="M19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="N19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="O19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="P19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="R19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="S19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="T19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="U19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="V19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="W19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="X19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.8292685207392</v>
+        <v>353.8292685207387</v>
       </c>
       <c r="C20" t="n">
-        <v>299.3273299625894</v>
+        <v>299.3273299625889</v>
       </c>
       <c r="D20" t="n">
-        <v>253.9351852988558</v>
+        <v>253.9351852988557</v>
       </c>
       <c r="E20" t="n">
-        <v>186.5812855140055</v>
+        <v>186.5812855140052</v>
       </c>
       <c r="F20" t="n">
-        <v>99.86191493321857</v>
+        <v>99.86191493321844</v>
       </c>
       <c r="G20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I20" t="n">
-        <v>156.7014752944143</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7014752944143</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="K20" t="n">
-        <v>156.7014752944143</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="L20" t="n">
-        <v>156.7014752944143</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="M20" t="n">
-        <v>156.7014752944143</v>
+        <v>156.7014752944142</v>
       </c>
       <c r="N20" t="n">
-        <v>224.6848823815308</v>
+        <v>301.6869524359749</v>
       </c>
       <c r="O20" t="n">
-        <v>224.6848823815308</v>
+        <v>301.6869524359749</v>
       </c>
       <c r="P20" t="n">
-        <v>369.6703595230917</v>
+        <v>301.6869524359749</v>
       </c>
       <c r="Q20" t="n">
-        <v>514.6558366646526</v>
+        <v>301.6869524359749</v>
       </c>
       <c r="R20" t="n">
-        <v>514.6558366646526</v>
+        <v>301.6869524359749</v>
       </c>
       <c r="S20" t="n">
-        <v>514.6558366646526</v>
+        <v>411.3762979347375</v>
       </c>
       <c r="T20" t="n">
-        <v>514.6558366646526</v>
+        <v>514.655836664652</v>
       </c>
       <c r="U20" t="n">
-        <v>585.7999076426704</v>
+        <v>585.7999076426698</v>
       </c>
       <c r="V20" t="n">
-        <v>576.2524536476546</v>
+        <v>576.2524536476542</v>
       </c>
       <c r="W20" t="n">
-        <v>541.1493436142985</v>
+        <v>541.149343614298</v>
       </c>
       <c r="X20" t="n">
-        <v>486.5510232448346</v>
+        <v>486.5510232448341</v>
       </c>
       <c r="Y20" t="n">
-        <v>420.4409879297154</v>
+        <v>420.440987929715</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="C21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="D21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="E21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="F21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="G21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="J21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="K21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="L21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="M21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="N21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="O21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="P21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="R21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="S21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="T21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="U21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="V21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="W21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="X21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="C22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="D22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="E22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="F22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="G22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="J22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="K22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="L22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="M22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="N22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="O22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="P22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="R22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="S22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="T22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="U22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="V22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="W22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="X22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
     </row>
     <row r="23">
@@ -5978,40 +5978,40 @@
         <v>99.86191493321854</v>
       </c>
       <c r="G23" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H23" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I23" t="n">
-        <v>11.71599815285341</v>
+        <v>150.8434762179882</v>
       </c>
       <c r="J23" t="n">
-        <v>11.71599815285341</v>
+        <v>150.8434762179882</v>
       </c>
       <c r="K23" t="n">
-        <v>11.71599815285341</v>
+        <v>150.8434762179882</v>
       </c>
       <c r="L23" t="n">
-        <v>11.71599815285341</v>
+        <v>295.828953359549</v>
       </c>
       <c r="M23" t="n">
-        <v>156.7014752944143</v>
+        <v>295.828953359549</v>
       </c>
       <c r="N23" t="n">
-        <v>295.8289533595487</v>
+        <v>295.828953359549</v>
       </c>
       <c r="O23" t="n">
-        <v>440.8144305011096</v>
+        <v>295.828953359549</v>
       </c>
       <c r="P23" t="n">
-        <v>440.8144305011096</v>
+        <v>440.8144305011098</v>
       </c>
       <c r="Q23" t="n">
-        <v>440.8144305011096</v>
+        <v>440.8144305011098</v>
       </c>
       <c r="R23" t="n">
-        <v>440.8144305011096</v>
+        <v>440.8144305011098</v>
       </c>
       <c r="S23" t="n">
         <v>585.7999076426705</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="C24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="D24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="E24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="F24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="G24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="J24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="K24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="L24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="M24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="N24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="O24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="P24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="R24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="S24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="T24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="U24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="V24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="W24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="X24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="C25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="D25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="E25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="F25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="G25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="H25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="I25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="J25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="K25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="L25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="M25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="N25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="O25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="P25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="R25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="S25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="T25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="U25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="V25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="W25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="X25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.7159981528534</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1303.744081406403</v>
+        <v>1303.744081406405</v>
       </c>
       <c r="C26" t="n">
-        <v>1097.04738406355</v>
+        <v>1097.047384063552</v>
       </c>
       <c r="D26" t="n">
-        <v>899.4604806151121</v>
+        <v>899.4604806151141</v>
       </c>
       <c r="E26" t="n">
-        <v>679.9118220455582</v>
+        <v>679.9118220455598</v>
       </c>
       <c r="F26" t="n">
-        <v>440.9976926800679</v>
+        <v>440.9976926800691</v>
       </c>
       <c r="G26" t="n">
-        <v>200.6570171149988</v>
+        <v>200.657017114999</v>
       </c>
       <c r="H26" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="I26" t="n">
-        <v>70.71846950395496</v>
+        <v>70.71846950395488</v>
       </c>
       <c r="J26" t="n">
-        <v>70.71846950395496</v>
+        <v>140.6154664721817</v>
       </c>
       <c r="K26" t="n">
-        <v>548.2174905818849</v>
+        <v>140.6154664721817</v>
       </c>
       <c r="L26" t="n">
-        <v>925.1840020740367</v>
+        <v>623.0023098695142</v>
       </c>
       <c r="M26" t="n">
-        <v>1474.342108034309</v>
+        <v>1106.807454886555</v>
       </c>
       <c r="N26" t="n">
-        <v>1553.589249791955</v>
+        <v>1106.807454886555</v>
       </c>
       <c r="O26" t="n">
-        <v>1627.156515357838</v>
+        <v>1670.46455373759</v>
       </c>
       <c r="P26" t="n">
-        <v>2101.232674388628</v>
+        <v>2144.540712768381</v>
       </c>
       <c r="Q26" t="n">
-        <v>2423.112916514749</v>
+        <v>2392.375494607504</v>
       </c>
       <c r="R26" t="n">
-        <v>2423.112916514749</v>
+        <v>2423.112916514752</v>
       </c>
       <c r="S26" t="n">
-        <v>2423.112916514749</v>
+        <v>2423.112916514752</v>
       </c>
       <c r="T26" t="n">
-        <v>2376.294689441008</v>
+        <v>2376.294689441011</v>
       </c>
       <c r="U26" t="n">
-        <v>2296.688514451854</v>
+        <v>2296.688514451856</v>
       </c>
       <c r="V26" t="n">
-        <v>2134.946301672134</v>
+        <v>2134.946301672137</v>
       </c>
       <c r="W26" t="n">
-        <v>1947.648432854074</v>
+        <v>1947.648432854076</v>
       </c>
       <c r="X26" t="n">
-        <v>1740.855353699906</v>
+        <v>1740.855353699909</v>
       </c>
       <c r="Y26" t="n">
-        <v>1522.550559600083</v>
+        <v>1522.550559600086</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48.46225833029499</v>
+        <v>63.96510626436581</v>
       </c>
       <c r="C27" t="n">
-        <v>48.46225833029499</v>
+        <v>77.22918039721007</v>
       </c>
       <c r="D27" t="n">
-        <v>48.46225833029499</v>
+        <v>112.9032760679015</v>
       </c>
       <c r="E27" t="n">
-        <v>48.46225833029499</v>
+        <v>140.5509673266255</v>
       </c>
       <c r="F27" t="n">
-        <v>48.46225833029499</v>
+        <v>140.5509673266255</v>
       </c>
       <c r="G27" t="n">
-        <v>48.46225833029499</v>
+        <v>186.4099734817579</v>
       </c>
       <c r="H27" t="n">
-        <v>48.46225833029499</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="I27" t="n">
-        <v>48.46225833029499</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="J27" t="n">
-        <v>48.46225833029499</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="K27" t="n">
-        <v>48.46225833029499</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="L27" t="n">
-        <v>168.6819674298067</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="M27" t="n">
-        <v>168.6819674298067</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="N27" t="n">
-        <v>191.5132086431835</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="O27" t="n">
-        <v>191.5132086431835</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="P27" t="n">
-        <v>191.5132086431835</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="Q27" t="n">
-        <v>191.5132086431835</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="R27" t="n">
-        <v>263.2161499741886</v>
+        <v>262.8759658390737</v>
       </c>
       <c r="S27" t="n">
-        <v>263.2161499741886</v>
+        <v>263.2161499741894</v>
       </c>
       <c r="T27" t="n">
-        <v>250.9030256651358</v>
+        <v>250.9030256651365</v>
       </c>
       <c r="U27" t="n">
-        <v>207.6638188239214</v>
+        <v>207.663818823922</v>
       </c>
       <c r="V27" t="n">
-        <v>154.5052575965944</v>
+        <v>154.5052575965948</v>
       </c>
       <c r="W27" t="n">
-        <v>88.42645015424347</v>
+        <v>88.4264501542438</v>
       </c>
       <c r="X27" t="n">
-        <v>65.74652335637711</v>
+        <v>65.7465233563773</v>
       </c>
       <c r="Y27" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="C28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="D28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="E28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="F28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="G28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="H28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="I28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="J28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="K28" t="n">
-        <v>48.46225833029499</v>
+        <v>280.6961078092878</v>
       </c>
       <c r="L28" t="n">
-        <v>48.46225833029499</v>
+        <v>415.7000997630047</v>
       </c>
       <c r="M28" t="n">
-        <v>202.7224859425039</v>
+        <v>415.7000997630047</v>
       </c>
       <c r="N28" t="n">
-        <v>337.128359425092</v>
+        <v>415.7000997630047</v>
       </c>
       <c r="O28" t="n">
-        <v>468.293681130587</v>
+        <v>559.2440973896786</v>
       </c>
       <c r="P28" t="n">
-        <v>559.2440973896773</v>
+        <v>559.2440973896786</v>
       </c>
       <c r="Q28" t="n">
-        <v>559.2440973896773</v>
+        <v>559.2440973896786</v>
       </c>
       <c r="R28" t="n">
-        <v>559.2440973896773</v>
+        <v>559.2440973896786</v>
       </c>
       <c r="S28" t="n">
-        <v>524.8852341847937</v>
+        <v>524.8852341847949</v>
       </c>
       <c r="T28" t="n">
-        <v>467.9519515535712</v>
+        <v>467.9519515535722</v>
       </c>
       <c r="U28" t="n">
-        <v>356.011649229505</v>
+        <v>356.0116492295058</v>
       </c>
       <c r="V28" t="n">
-        <v>270.5134061122666</v>
+        <v>270.5134061122673</v>
       </c>
       <c r="W28" t="n">
-        <v>159.5940659540048</v>
+        <v>159.5940659540053</v>
       </c>
       <c r="X28" t="n">
-        <v>103.5786631737196</v>
+        <v>103.57866317372</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.78056569033577</v>
+        <v>56.78056569033596</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>1303.744081406403</v>
       </c>
       <c r="C29" t="n">
-        <v>1097.04738406355</v>
+        <v>1097.047384063549</v>
       </c>
       <c r="D29" t="n">
-        <v>899.4604806151121</v>
+        <v>899.4604806151117</v>
       </c>
       <c r="E29" t="n">
-        <v>679.911822045558</v>
+        <v>679.9118220455575</v>
       </c>
       <c r="F29" t="n">
-        <v>440.9976926800673</v>
+        <v>440.9976926800668</v>
       </c>
       <c r="G29" t="n">
         <v>200.6570171149989</v>
       </c>
       <c r="H29" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="I29" t="n">
-        <v>48.46225833029499</v>
+        <v>70.71846950395486</v>
       </c>
       <c r="J29" t="n">
-        <v>164.2367552209962</v>
+        <v>140.6154664721817</v>
       </c>
       <c r="K29" t="n">
-        <v>224.560630319837</v>
+        <v>446.3646437461269</v>
       </c>
       <c r="L29" t="n">
-        <v>645.4516700952327</v>
+        <v>600.301703889309</v>
       </c>
       <c r="M29" t="n">
-        <v>1245.172116932633</v>
+        <v>1084.10684890635</v>
       </c>
       <c r="N29" t="n">
-        <v>1844.892563770034</v>
+        <v>1554.469638578235</v>
       </c>
       <c r="O29" t="n">
-        <v>1900.405908337135</v>
+        <v>1946.376893625286</v>
       </c>
       <c r="P29" t="n">
-        <v>2374.482067367925</v>
+        <v>2006.298115239378</v>
       </c>
       <c r="Q29" t="n">
-        <v>2423.112916514749</v>
+        <v>2328.178357365499</v>
       </c>
       <c r="R29" t="n">
         <v>2423.112916514749</v>
@@ -6494,7 +6494,7 @@
         <v>2376.294689441008</v>
       </c>
       <c r="U29" t="n">
-        <v>2296.688514451854</v>
+        <v>2296.688514451853</v>
       </c>
       <c r="V29" t="n">
         <v>2134.946301672134</v>
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="C30" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="D30" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="E30" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="F30" t="n">
-        <v>48.46225833029499</v>
+        <v>88.19871066535143</v>
       </c>
       <c r="G30" t="n">
-        <v>48.46225833029499</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="H30" t="n">
-        <v>48.46225833029499</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="I30" t="n">
-        <v>48.46225833029499</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="J30" t="n">
-        <v>48.46225833029499</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="K30" t="n">
-        <v>48.46225833029499</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="L30" t="n">
-        <v>48.46225833029499</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="M30" t="n">
-        <v>48.46225833029499</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="N30" t="n">
-        <v>140.508024204483</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="O30" t="n">
-        <v>263.216149974189</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="P30" t="n">
-        <v>263.216149974189</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="Q30" t="n">
-        <v>263.216149974189</v>
+        <v>132.9268195960142</v>
       </c>
       <c r="R30" t="n">
         <v>263.216149974189</v>
@@ -6579,13 +6579,13 @@
         <v>154.5052575965946</v>
       </c>
       <c r="W30" t="n">
-        <v>88.42645015424364</v>
+        <v>88.42645015424362</v>
       </c>
       <c r="X30" t="n">
-        <v>65.7465233563772</v>
+        <v>65.74652335637718</v>
       </c>
       <c r="Y30" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
     </row>
     <row r="31">
@@ -6595,64 +6595,64 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="C31" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="D31" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="E31" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="F31" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="G31" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="H31" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="I31" t="n">
-        <v>48.46225833029499</v>
+        <v>85.83632255470948</v>
       </c>
       <c r="J31" t="n">
-        <v>48.46225833029499</v>
+        <v>172.7574275269976</v>
       </c>
       <c r="K31" t="n">
-        <v>48.46225833029499</v>
+        <v>172.7574275269976</v>
       </c>
       <c r="L31" t="n">
-        <v>182.8681318128837</v>
+        <v>172.7574275269976</v>
       </c>
       <c r="M31" t="n">
-        <v>337.1283594250926</v>
+        <v>172.7574275269976</v>
       </c>
       <c r="N31" t="n">
-        <v>337.1283594250926</v>
+        <v>277.2045914095718</v>
       </c>
       <c r="O31" t="n">
-        <v>468.2936811305877</v>
+        <v>370.2851323061607</v>
       </c>
       <c r="P31" t="n">
-        <v>559.244097389678</v>
+        <v>370.2851323061607</v>
       </c>
       <c r="Q31" t="n">
-        <v>559.244097389678</v>
+        <v>523.6377675245908</v>
       </c>
       <c r="R31" t="n">
         <v>559.244097389678</v>
       </c>
       <c r="S31" t="n">
-        <v>524.8852341847944</v>
+        <v>524.8852341847943</v>
       </c>
       <c r="T31" t="n">
-        <v>467.9519515535718</v>
+        <v>467.9519515535717</v>
       </c>
       <c r="U31" t="n">
-        <v>356.0116492295055</v>
+        <v>356.0116492295054</v>
       </c>
       <c r="V31" t="n">
         <v>270.513406112267</v>
@@ -6664,7 +6664,7 @@
         <v>103.5786631737198</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.78056569033586</v>
+        <v>56.78056569033584</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>1097.047384063549</v>
       </c>
       <c r="D32" t="n">
-        <v>899.4604806151119</v>
+        <v>899.4604806151118</v>
       </c>
       <c r="E32" t="n">
-        <v>679.9118220455578</v>
+        <v>679.9118220455576</v>
       </c>
       <c r="F32" t="n">
-        <v>440.9976926800671</v>
+        <v>440.997692680067</v>
       </c>
       <c r="G32" t="n">
         <v>200.6570171149989</v>
       </c>
       <c r="H32" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="I32" t="n">
-        <v>70.71846950395485</v>
+        <v>70.71846950395486</v>
       </c>
       <c r="J32" t="n">
-        <v>358.2428101986406</v>
+        <v>70.71846950395486</v>
       </c>
       <c r="K32" t="n">
-        <v>418.5666852974814</v>
+        <v>548.2174905818847</v>
       </c>
       <c r="L32" t="n">
-        <v>937.8551287001919</v>
+        <v>977.4963880810172</v>
       </c>
       <c r="M32" t="n">
-        <v>1537.575575537592</v>
+        <v>1461.301533098058</v>
       </c>
       <c r="N32" t="n">
-        <v>1537.575575537592</v>
+        <v>1540.548674855704</v>
       </c>
       <c r="O32" t="n">
-        <v>2101.232674388628</v>
+        <v>1772.317400573343</v>
       </c>
       <c r="P32" t="n">
-        <v>2101.232674388628</v>
+        <v>2246.393559604133</v>
       </c>
       <c r="Q32" t="n">
-        <v>2423.112916514749</v>
+        <v>2396.52395792627</v>
       </c>
       <c r="R32" t="n">
         <v>2423.112916514749</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2208.359024870856</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="C33" t="n">
-        <v>2208.359024870856</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="D33" t="n">
-        <v>2208.359024870856</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="E33" t="n">
-        <v>2208.359024870856</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="F33" t="n">
-        <v>2248.095477205912</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="G33" t="n">
-        <v>2248.095477205912</v>
+        <v>94.32126448542743</v>
       </c>
       <c r="H33" t="n">
-        <v>2324.561469563228</v>
+        <v>94.32126448542743</v>
       </c>
       <c r="I33" t="n">
-        <v>2324.561469563228</v>
+        <v>94.32126448542743</v>
       </c>
       <c r="J33" t="n">
-        <v>2324.561469563228</v>
+        <v>94.32126448542743</v>
       </c>
       <c r="K33" t="n">
-        <v>2324.561469563228</v>
+        <v>94.32126448542743</v>
       </c>
       <c r="L33" t="n">
-        <v>2324.561469563228</v>
+        <v>94.32126448542743</v>
       </c>
       <c r="M33" t="n">
-        <v>2324.561469563228</v>
+        <v>125.340352364119</v>
       </c>
       <c r="N33" t="n">
-        <v>2423.112916514749</v>
+        <v>263.216149974189</v>
       </c>
       <c r="O33" t="n">
-        <v>2423.112916514749</v>
+        <v>263.216149974189</v>
       </c>
       <c r="P33" t="n">
-        <v>2423.112916514749</v>
+        <v>263.216149974189</v>
       </c>
       <c r="Q33" t="n">
-        <v>2423.112916514749</v>
+        <v>263.216149974189</v>
       </c>
       <c r="R33" t="n">
-        <v>2423.112916514749</v>
+        <v>263.216149974189</v>
       </c>
       <c r="S33" t="n">
-        <v>2423.112916514749</v>
+        <v>263.216149974189</v>
       </c>
       <c r="T33" t="n">
-        <v>2410.799792205697</v>
+        <v>250.9030256651362</v>
       </c>
       <c r="U33" t="n">
-        <v>2367.560585364482</v>
+        <v>207.6638188239217</v>
       </c>
       <c r="V33" t="n">
-        <v>2314.402024137155</v>
+        <v>154.5052575965946</v>
       </c>
       <c r="W33" t="n">
-        <v>2248.323216694804</v>
+        <v>88.42645015424362</v>
       </c>
       <c r="X33" t="n">
-        <v>2225.643289896938</v>
+        <v>65.74652335637718</v>
       </c>
       <c r="Y33" t="n">
-        <v>2208.359024870856</v>
+        <v>48.46225833029498</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="C34" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="D34" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="E34" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="F34" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="G34" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="H34" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="I34" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="J34" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="K34" t="n">
-        <v>143.31688052372</v>
+        <v>48.46225833029498</v>
       </c>
       <c r="L34" t="n">
-        <v>143.31688052372</v>
+        <v>256.3289318801984</v>
       </c>
       <c r="M34" t="n">
-        <v>297.5771081359289</v>
+        <v>256.3289318801984</v>
       </c>
       <c r="N34" t="n">
-        <v>451.4038297933408</v>
+        <v>256.3289318801984</v>
       </c>
       <c r="O34" t="n">
-        <v>468.293681130588</v>
+        <v>559.244097389678</v>
       </c>
       <c r="P34" t="n">
-        <v>559.2440973896784</v>
+        <v>559.244097389678</v>
       </c>
       <c r="Q34" t="n">
-        <v>559.2440973896784</v>
+        <v>559.244097389678</v>
       </c>
       <c r="R34" t="n">
-        <v>559.2440973896784</v>
+        <v>559.244097389678</v>
       </c>
       <c r="S34" t="n">
-        <v>524.8852341847946</v>
+        <v>524.8852341847943</v>
       </c>
       <c r="T34" t="n">
-        <v>467.951951553572</v>
+        <v>467.9519515535717</v>
       </c>
       <c r="U34" t="n">
-        <v>356.0116492295056</v>
+        <v>356.0116492295054</v>
       </c>
       <c r="V34" t="n">
-        <v>270.5134061122671</v>
+        <v>270.513406112267</v>
       </c>
       <c r="W34" t="n">
-        <v>159.5940659540052</v>
+        <v>159.5940659540051</v>
       </c>
       <c r="X34" t="n">
-        <v>103.5786631737199</v>
+        <v>103.5786631737198</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.78056569033588</v>
+        <v>56.78056569033584</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1027.066278873634</v>
       </c>
       <c r="C35" t="n">
-        <v>864.5298822607665</v>
+        <v>864.5298822607667</v>
       </c>
       <c r="D35" t="n">
-        <v>711.103279542315</v>
+        <v>711.1032795423152</v>
       </c>
       <c r="E35" t="n">
         <v>535.714921702747</v>
       </c>
       <c r="F35" t="n">
-        <v>340.9610930672425</v>
+        <v>340.9610930672423</v>
       </c>
       <c r="G35" t="n">
         <v>144.7807182321595</v>
@@ -6932,31 +6932,31 @@
         <v>36.74626017744158</v>
       </c>
       <c r="I35" t="n">
-        <v>36.74626017744158</v>
+        <v>102.2839820965607</v>
       </c>
       <c r="J35" t="n">
-        <v>367.5521116175866</v>
+        <v>215.4624898102468</v>
       </c>
       <c r="K35" t="n">
-        <v>471.1574974618867</v>
+        <v>670.1974595060865</v>
       </c>
       <c r="L35" t="n">
-        <v>576.1613817155163</v>
+        <v>776.9777284282333</v>
       </c>
       <c r="M35" t="n">
-        <v>576.1613817155163</v>
+        <v>897.2903103894425</v>
       </c>
       <c r="N35" t="n">
-        <v>698.6900342186217</v>
+        <v>1352.025280085282</v>
       </c>
       <c r="O35" t="n">
-        <v>815.5388105299633</v>
+        <v>1468.874056396624</v>
       </c>
       <c r="P35" t="n">
-        <v>1270.273780225803</v>
+        <v>1717.339510295569</v>
       </c>
       <c r="Q35" t="n">
-        <v>1635.435533097384</v>
+        <v>1720.012565473912</v>
       </c>
       <c r="R35" t="n">
         <v>1794.03149812662</v>
@@ -6977,10 +6977,10 @@
         <v>1538.489728131347</v>
       </c>
       <c r="X35" t="n">
-        <v>1375.856949707165</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y35" t="n">
-        <v>1201.712456337328</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="C36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="D36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="E36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="F36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="G36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="H36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="I36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="J36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="K36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="L36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="M36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="N36" t="n">
         <v>67.66302738714766</v>
@@ -7056,10 +7056,10 @@
         <v>36.74626017744158</v>
       </c>
       <c r="X36" t="n">
-        <v>36.74626017744158</v>
+        <v>41.32182479375156</v>
       </c>
       <c r="Y36" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714766</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.87499787932481</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C37" t="n">
-        <v>71.87499787932481</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D37" t="n">
-        <v>136.8805899306589</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E37" t="n">
-        <v>136.8805899306589</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F37" t="n">
-        <v>202.465654539867</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G37" t="n">
-        <v>202.465654539867</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H37" t="n">
-        <v>202.465654539867</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I37" t="n">
-        <v>202.465654539867</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J37" t="n">
-        <v>202.465654539867</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K37" t="n">
-        <v>202.465654539867</v>
+        <v>97.2302658524498</v>
       </c>
       <c r="L37" t="n">
-        <v>202.465654539867</v>
+        <v>97.2302658524498</v>
       </c>
       <c r="M37" t="n">
-        <v>202.465654539867</v>
+        <v>97.2302658524498</v>
       </c>
       <c r="N37" t="n">
         <v>239.8891242919841</v>
@@ -7151,43 +7151,43 @@
         <v>1027.066278873635</v>
       </c>
       <c r="C38" t="n">
-        <v>864.5298822607673</v>
+        <v>864.529882260767</v>
       </c>
       <c r="D38" t="n">
-        <v>711.1032795423158</v>
+        <v>711.1032795423155</v>
       </c>
       <c r="E38" t="n">
-        <v>535.7149217027477</v>
+        <v>535.7149217027472</v>
       </c>
       <c r="F38" t="n">
-        <v>340.9610930672429</v>
+        <v>340.9610930672425</v>
       </c>
       <c r="G38" t="n">
-        <v>144.7807182321599</v>
+        <v>144.7807182321595</v>
       </c>
       <c r="H38" t="n">
-        <v>36.746260177442</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2839820965611</v>
+        <v>102.2839820965607</v>
       </c>
       <c r="J38" t="n">
-        <v>433.0898335367062</v>
+        <v>433.0898335367058</v>
       </c>
       <c r="K38" t="n">
-        <v>567.4517703986215</v>
+        <v>536.6952193810059</v>
       </c>
       <c r="L38" t="n">
-        <v>674.2320393207683</v>
+        <v>643.4754883031527</v>
       </c>
       <c r="M38" t="n">
-        <v>698.6900342186217</v>
+        <v>643.4754883031527</v>
       </c>
       <c r="N38" t="n">
-        <v>698.6900342186217</v>
+        <v>1098.210457998992</v>
       </c>
       <c r="O38" t="n">
-        <v>815.5388105299633</v>
+        <v>1167.071047866251</v>
       </c>
       <c r="P38" t="n">
         <v>1270.273780225803</v>
@@ -7208,10 +7208,10 @@
         <v>1799.209208269155</v>
       </c>
       <c r="V38" t="n">
-        <v>1681.627296219422</v>
+        <v>1681.627296219421</v>
       </c>
       <c r="W38" t="n">
-        <v>1538.489728131348</v>
+        <v>1538.489728131347</v>
       </c>
       <c r="X38" t="n">
         <v>1375.856949707166</v>
@@ -7260,7 +7260,7 @@
         <v>36.74626017744158</v>
       </c>
       <c r="M39" t="n">
-        <v>67.66302738714766</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N39" t="n">
         <v>67.66302738714766</v>
@@ -7327,34 +7327,34 @@
         <v>36.74626017744158</v>
       </c>
       <c r="I40" t="n">
-        <v>90.73308680243505</v>
+        <v>101.7529913530998</v>
       </c>
       <c r="J40" t="n">
-        <v>90.73308680243505</v>
+        <v>101.7529913530998</v>
       </c>
       <c r="K40" t="n">
-        <v>90.73308680243505</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="L40" t="n">
-        <v>90.73308680243505</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="M40" t="n">
-        <v>230.2827353736313</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="N40" t="n">
-        <v>230.2827353736313</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="O40" t="n">
-        <v>230.2827353736313</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="P40" t="n">
-        <v>230.2827353736313</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="Q40" t="n">
-        <v>230.2827353736313</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="R40" t="n">
-        <v>230.2827353736313</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="S40" t="n">
         <v>239.8891242919841</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1027.066278873635</v>
+        <v>1027.066278873634</v>
       </c>
       <c r="C41" t="n">
-        <v>864.5298822607672</v>
+        <v>864.5298822607665</v>
       </c>
       <c r="D41" t="n">
-        <v>711.1032795423157</v>
+        <v>711.103279542315</v>
       </c>
       <c r="E41" t="n">
-        <v>535.7149217027475</v>
+        <v>535.7149217027468</v>
       </c>
       <c r="F41" t="n">
-        <v>340.9610930672428</v>
+        <v>340.961093067242</v>
       </c>
       <c r="G41" t="n">
         <v>144.7807182321595</v>
@@ -7406,28 +7406,28 @@
         <v>36.74626017744158</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2839820965607</v>
+        <v>97.58105578248748</v>
       </c>
       <c r="J41" t="n">
-        <v>215.4624898102468</v>
+        <v>428.3869072226325</v>
       </c>
       <c r="K41" t="n">
-        <v>670.1974595060865</v>
+        <v>531.9922930669326</v>
       </c>
       <c r="L41" t="n">
-        <v>670.1974595060865</v>
+        <v>638.7725619890793</v>
       </c>
       <c r="M41" t="n">
-        <v>790.5100414672958</v>
+        <v>759.0851439502886</v>
       </c>
       <c r="N41" t="n">
-        <v>1245.245011163135</v>
+        <v>1213.820113646128</v>
       </c>
       <c r="O41" t="n">
-        <v>1251.64808024278</v>
+        <v>1628.100205581629</v>
       </c>
       <c r="P41" t="n">
-        <v>1354.850812602331</v>
+        <v>1628.100205581629</v>
       </c>
       <c r="Q41" t="n">
         <v>1720.012565473912</v>
@@ -7442,19 +7442,19 @@
         <v>1834.655082528324</v>
       </c>
       <c r="U41" t="n">
-        <v>1799.209208269156</v>
+        <v>1799.209208269155</v>
       </c>
       <c r="V41" t="n">
-        <v>1681.627296219422</v>
+        <v>1681.627296219421</v>
       </c>
       <c r="W41" t="n">
-        <v>1538.489728131348</v>
+        <v>1538.489728131347</v>
       </c>
       <c r="X41" t="n">
         <v>1375.856949707166</v>
       </c>
       <c r="Y41" t="n">
-        <v>1201.712456337329</v>
+        <v>1201.712456337328</v>
       </c>
     </row>
     <row r="42">
@@ -7479,52 +7479,52 @@
         <v>36.74626017744158</v>
       </c>
       <c r="G42" t="n">
-        <v>67.66302738714766</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H42" t="n">
-        <v>67.66302738714766</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I42" t="n">
-        <v>67.66302738714766</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="K42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="L42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="M42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="N42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="O42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="P42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="R42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="S42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="T42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="U42" t="n">
-        <v>67.66302738714766</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="V42" t="n">
-        <v>58.66476688980659</v>
+        <v>58.66476688980661</v>
       </c>
       <c r="W42" t="n">
         <v>36.74626017744158</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1634.170144757537</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C43" t="n">
-        <v>1634.170144757537</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D43" t="n">
-        <v>1634.170144757537</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E43" t="n">
-        <v>1634.170144757537</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F43" t="n">
-        <v>1634.170144757537</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G43" t="n">
-        <v>1634.170144757537</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H43" t="n">
-        <v>1634.170144757537</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I43" t="n">
-        <v>1634.170144757537</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J43" t="n">
-        <v>1634.170144757537</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K43" t="n">
-        <v>1634.170144757537</v>
+        <v>98.95871867280408</v>
       </c>
       <c r="L43" t="n">
-        <v>1634.170144757537</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="M43" t="n">
-        <v>1689.584334244046</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="N43" t="n">
-        <v>1837.313008872079</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="O43" t="n">
-        <v>1837.313008872079</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="P43" t="n">
-        <v>1837.313008872079</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="Q43" t="n">
-        <v>1837.313008872079</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.313008872079</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.313008872079</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="T43" t="n">
-        <v>1824.540026970843</v>
+        <v>227.1161423907477</v>
       </c>
       <c r="U43" t="n">
-        <v>1756.760025376762</v>
+        <v>159.3361407966673</v>
       </c>
       <c r="V43" t="n">
-        <v>1715.42208298951</v>
+        <v>117.9981984094148</v>
       </c>
       <c r="W43" t="n">
-        <v>1648.663043561234</v>
+        <v>51.23915898113888</v>
       </c>
       <c r="X43" t="n">
-        <v>1636.807941510935</v>
+        <v>39.38405693083957</v>
       </c>
       <c r="Y43" t="n">
-        <v>1634.170144757537</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1027.066278873635</v>
+        <v>1027.066278873634</v>
       </c>
       <c r="C44" t="n">
-        <v>864.5298822607672</v>
+        <v>864.5298822607667</v>
       </c>
       <c r="D44" t="n">
-        <v>711.1032795423159</v>
+        <v>711.1032795423155</v>
       </c>
       <c r="E44" t="n">
-        <v>535.7149217027476</v>
+        <v>535.714921702747</v>
       </c>
       <c r="F44" t="n">
-        <v>340.9610930672428</v>
+        <v>340.9610930672422</v>
       </c>
       <c r="G44" t="n">
-        <v>144.7807182321595</v>
+        <v>144.7807182321596</v>
       </c>
       <c r="H44" t="n">
         <v>36.74626017744158</v>
       </c>
       <c r="I44" t="n">
-        <v>36.74626017744158</v>
+        <v>102.2839820965606</v>
       </c>
       <c r="J44" t="n">
-        <v>367.5521116175866</v>
+        <v>215.4624898102467</v>
       </c>
       <c r="K44" t="n">
-        <v>807.3810370905954</v>
+        <v>670.1974595060863</v>
       </c>
       <c r="L44" t="n">
-        <v>807.3810370905954</v>
+        <v>776.9777284282329</v>
       </c>
       <c r="M44" t="n">
-        <v>927.6936190518047</v>
+        <v>897.2903103894421</v>
       </c>
       <c r="N44" t="n">
-        <v>1050.22227155491</v>
+        <v>1019.818962892547</v>
       </c>
       <c r="O44" t="n">
-        <v>1167.071047866252</v>
+        <v>1136.667739203889</v>
       </c>
       <c r="P44" t="n">
-        <v>1270.273780225803</v>
+        <v>1564.786104266196</v>
       </c>
       <c r="Q44" t="n">
-        <v>1635.435533097384</v>
+        <v>1656.69846415848</v>
       </c>
       <c r="R44" t="n">
         <v>1794.03149812662</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N45" t="n">
-        <v>1837.313008872079</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.313008872079</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="P45" t="n">
-        <v>1837.313008872079</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="Q45" t="n">
-        <v>1837.313008872079</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="R45" t="n">
-        <v>1837.313008872079</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="S45" t="n">
-        <v>1837.313008872079</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.313008872079</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="U45" t="n">
-        <v>1837.313008872079</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="V45" t="n">
-        <v>1828.314748374738</v>
+        <v>58.66476688980668</v>
       </c>
       <c r="W45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="X45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Y45" t="n">
-        <v>1806.396241662373</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="46">
@@ -7810,43 +7810,43 @@
         <v>36.74626017744158</v>
       </c>
       <c r="L46" t="n">
-        <v>36.74626017744158</v>
+        <v>171.7502521311585</v>
       </c>
       <c r="M46" t="n">
-        <v>36.74626017744158</v>
+        <v>171.7502521311585</v>
       </c>
       <c r="N46" t="n">
-        <v>36.74626017744158</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="O46" t="n">
-        <v>173.1083118194897</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="P46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="Q46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="R46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="S46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1161423907477</v>
+        <v>227.116142390748</v>
       </c>
       <c r="U46" t="n">
-        <v>159.3361407966673</v>
+        <v>159.3361407966676</v>
       </c>
       <c r="V46" t="n">
-        <v>117.9981984094148</v>
+        <v>117.998198409415</v>
       </c>
       <c r="W46" t="n">
-        <v>51.23915898113888</v>
+        <v>51.239158981139</v>
       </c>
       <c r="X46" t="n">
-        <v>39.38405693083957</v>
+        <v>39.38405693083963</v>
       </c>
       <c r="Y46" t="n">
         <v>36.74626017744158</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>102.8816634704624</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>421.3890363425141</v>
+        <v>112.5514835405493</v>
       </c>
       <c r="L26" t="n">
-        <v>316.6340942580447</v>
+        <v>423.1192780006516</v>
       </c>
       <c r="M26" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.43707277407925</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P26" t="n">
         <v>418.3383206229274</v>
@@ -9896,7 +9896,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>44.85432453608085</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>57.27806808817317</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>77.67194102076726</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L28" t="n">
-        <v>74.84944336390262</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M28" t="n">
-        <v>232.0625591822793</v>
+        <v>76.24414745277534</v>
       </c>
       <c r="N28" t="n">
-        <v>203.7460135393924</v>
+        <v>67.98250497112164</v>
       </c>
       <c r="O28" t="n">
-        <v>211.9541662756472</v>
+        <v>50.97318861624748</v>
       </c>
       <c r="P28" t="n">
-        <v>175.5085323082534</v>
+        <v>83.63942497583896</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
-        <v>361.0023046451598</v>
+        <v>91.35182016817632</v>
       </c>
       <c r="M29" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N29" t="n">
-        <v>525.7306111916711</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P29" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.71955400614102</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>44.85432453608085</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,22 +10270,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>77.67194102076726</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>210.612951932174</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>232.0625591822793</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>67.98250497112164</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>211.9541662756472</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>175.5085323082534</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>84.9458458910769</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
-        <v>460.3936214404273</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M32" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N32" t="n">
-        <v>36.10552315251273</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>495.0402356415689</v>
+        <v>159.7994546987434</v>
       </c>
       <c r="P32" t="n">
-        <v>112.9582042322147</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
         <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.15265312299755</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>77.67194102076726</v>
       </c>
       <c r="L34" t="n">
-        <v>74.84944336390262</v>
+        <v>111.3310895719014</v>
       </c>
       <c r="M34" t="n">
-        <v>232.0625591822793</v>
+        <v>76.24414745277534</v>
       </c>
       <c r="N34" t="n">
-        <v>223.3630318978003</v>
+        <v>67.98250497112164</v>
       </c>
       <c r="O34" t="n">
-        <v>96.52439822691203</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P34" t="n">
-        <v>175.5085323082534</v>
+        <v>83.63942497583896</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>354.6763473247873</v>
       </c>
       <c r="L35" t="n">
-        <v>50.78968368147011</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>335.5619365583173</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>355.0830680164528</v>
+        <v>146.7300217569631</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>49.53708892351371</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10744,22 +10744,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>74.84944336390262</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>76.24414745277534</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>212.0823619807523</v>
       </c>
       <c r="O37" t="n">
         <v>79.46394233070274</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>83.63942497583896</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>31.06722325011643</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>340.9883304922654</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>355.0830680164528</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10984,10 +10984,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>74.84944336390262</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>76.24414745277534</v>
       </c>
       <c r="N40" t="n">
         <v>67.98250497112164</v>
@@ -10996,10 +10996,10 @@
         <v>79.46394233070274</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>83.63942497583896</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>354.6763473247874</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>45.62516820891955</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>335.5619365583174</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>300.4356723476353</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>112.9582042322147</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11224,19 +11224,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>76.24414745277534</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>67.98250497112164</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>83.63942497583896</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>339.6197369986958</v>
+        <v>354.6763473247875</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>85.43134583487716</v>
+        <v>63.95363769235601</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73425734780223</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11455,22 +11455,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>77.67194102076726</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M46" t="n">
         <v>76.24414745277534</v>
       </c>
       <c r="N46" t="n">
-        <v>67.98250497112164</v>
+        <v>136.8096485679158</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>79.46394233070274</v>
       </c>
       <c r="P46" t="n">
-        <v>151.0947911096719</v>
+        <v>83.63942497583896</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.5285412724725</v>
+        <v>163.5687371127936</v>
       </c>
       <c r="C11" t="n">
-        <v>162.5398582301542</v>
+        <v>16.08988131948672</v>
       </c>
       <c r="D11" t="n">
-        <v>137.3711343330851</v>
+        <v>153.5211622746822</v>
       </c>
       <c r="E11" t="n">
         <v>175.2632998445877</v>
       </c>
       <c r="F11" t="n">
-        <v>47.98513902189731</v>
+        <v>194.4351159325649</v>
       </c>
       <c r="G11" t="n">
-        <v>49.39741975947985</v>
+        <v>195.8473966701474</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>36.72024109999224</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>118.0349185126516</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>143.3350179906085</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>162.6352762233551</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.5818971088863</v>
+        <v>174.0318740195538</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174.5285412724725</v>
+        <v>174.5285412724724</v>
       </c>
       <c r="C14" t="n">
-        <v>162.5398582301543</v>
+        <v>162.5398582301542</v>
       </c>
       <c r="D14" t="n">
         <v>153.5211622746822</v>
       </c>
       <c r="E14" t="n">
-        <v>151.7381403191987</v>
+        <v>175.2632998445877</v>
       </c>
       <c r="F14" t="n">
-        <v>47.98513902189734</v>
+        <v>47.9851390218974</v>
       </c>
       <c r="G14" t="n">
-        <v>195.8473966701475</v>
+        <v>76.30465345288154</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>108.5829390575859</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.260172663732913</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>36.72024109999228</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>118.0349185126516</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>162.6352762233552</v>
+        <v>162.6352762233551</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.58189710888632</v>
+        <v>174.0318740195538</v>
       </c>
     </row>
     <row r="15">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855555.5353117293</v>
+        <v>855555.5353117294</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855555.5353117294</v>
+        <v>855555.5353117295</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26314,37 @@
         <v>536113.642055113</v>
       </c>
       <c r="C2" t="n">
-        <v>536113.6420551131</v>
+        <v>536113.6420551129</v>
       </c>
       <c r="D2" t="n">
-        <v>536113.6420551131</v>
+        <v>536113.642055113</v>
       </c>
       <c r="E2" t="n">
-        <v>468500.7586838366</v>
+        <v>468500.7586838365</v>
       </c>
       <c r="F2" t="n">
-        <v>468500.7586838367</v>
+        <v>468500.7586838365</v>
       </c>
       <c r="G2" t="n">
-        <v>537336.842345927</v>
+        <v>537336.8423459271</v>
       </c>
       <c r="H2" t="n">
-        <v>537336.8423459271</v>
+        <v>537336.8423459273</v>
       </c>
       <c r="I2" t="n">
         <v>537336.8423459271</v>
       </c>
       <c r="J2" t="n">
+        <v>537336.8423459274</v>
+      </c>
+      <c r="K2" t="n">
+        <v>537336.8423459273</v>
+      </c>
+      <c r="L2" t="n">
+        <v>537336.8423459276</v>
+      </c>
+      <c r="M2" t="n">
         <v>537336.842345927</v>
-      </c>
-      <c r="K2" t="n">
-        <v>537336.8423459275</v>
-      </c>
-      <c r="L2" t="n">
-        <v>537336.8423459274</v>
-      </c>
-      <c r="M2" t="n">
-        <v>537336.8423459274</v>
       </c>
       <c r="N2" t="n">
         <v>537336.8423459273</v>
@@ -26353,7 +26353,7 @@
         <v>537336.842345927</v>
       </c>
       <c r="P2" t="n">
-        <v>537336.8423459273</v>
+        <v>537336.8423459275</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>320303.8499715893</v>
+        <v>320303.8499715892</v>
       </c>
       <c r="F3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86866.35124606878</v>
+        <v>86866.35124606871</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172101.8825461393</v>
+        <v>172101.8825461395</v>
       </c>
       <c r="K3" t="n">
-        <v>3.26718481329198e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86866.35124606876</v>
+        <v>86866.35124606871</v>
       </c>
       <c r="M3" t="n">
-        <v>34974.95817814893</v>
+        <v>34974.9581781489</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51921.40132280777</v>
+        <v>51921.40132280767</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
+        <v>337492.0798944828</v>
+      </c>
+      <c r="F4" t="n">
         <v>337492.0798944829</v>
-      </c>
-      <c r="F4" t="n">
-        <v>337492.0798944828</v>
       </c>
       <c r="G4" t="n">
         <v>393534.1149340968</v>
@@ -26445,16 +26445,16 @@
         <v>401705.6227511127</v>
       </c>
       <c r="L4" t="n">
-        <v>401705.6227511126</v>
+        <v>401705.6227511127</v>
       </c>
       <c r="M4" t="n">
-        <v>397296.6362691749</v>
+        <v>397296.6362691748</v>
       </c>
       <c r="N4" t="n">
+        <v>397296.6362691748</v>
+      </c>
+      <c r="O4" t="n">
         <v>397296.6362691747</v>
-      </c>
-      <c r="O4" t="n">
-        <v>397296.6362691749</v>
       </c>
       <c r="P4" t="n">
         <v>397296.6362691747</v>
@@ -26482,16 +26482,16 @@
         <v>29852.47964145841</v>
       </c>
       <c r="G5" t="n">
-        <v>38980.9387450906</v>
+        <v>38980.93874509059</v>
       </c>
       <c r="H5" t="n">
-        <v>38980.9387450906</v>
+        <v>38980.93874509059</v>
       </c>
       <c r="I5" t="n">
-        <v>38980.9387450906</v>
+        <v>38980.93874509059</v>
       </c>
       <c r="J5" t="n">
-        <v>54241.18391543765</v>
+        <v>54241.18391543768</v>
       </c>
       <c r="K5" t="n">
         <v>54241.18391543764</v>
@@ -26509,7 +26509,7 @@
         <v>49012.41251811756</v>
       </c>
       <c r="P5" t="n">
-        <v>49012.41251811756</v>
+        <v>49012.41251811755</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65348.8768436788</v>
+        <v>65344.50827121161</v>
       </c>
       <c r="C6" t="n">
-        <v>65348.87684367892</v>
+        <v>65344.50827121149</v>
       </c>
       <c r="D6" t="n">
-        <v>65348.87684367892</v>
+        <v>65344.50827121161</v>
       </c>
       <c r="E6" t="n">
-        <v>-219147.650823694</v>
+        <v>-219393.49397963</v>
       </c>
       <c r="F6" t="n">
-        <v>101156.1991478955</v>
+        <v>100910.3559919592</v>
       </c>
       <c r="G6" t="n">
-        <v>17955.43742067084</v>
+        <v>17955.43742067102</v>
       </c>
       <c r="H6" t="n">
-        <v>104821.7886667397</v>
+        <v>104821.7886667399</v>
       </c>
       <c r="I6" t="n">
         <v>104821.7886667397</v>
       </c>
       <c r="J6" t="n">
-        <v>-90711.84686676266</v>
+        <v>-90711.84686676251</v>
       </c>
       <c r="K6" t="n">
-        <v>81390.03567937718</v>
+        <v>81390.03567937706</v>
       </c>
       <c r="L6" t="n">
-        <v>-5476.315566691657</v>
+        <v>-5476.315566691432</v>
       </c>
       <c r="M6" t="n">
-        <v>56052.83538048599</v>
+        <v>56052.83538048576</v>
       </c>
       <c r="N6" t="n">
-        <v>91027.79355863495</v>
+        <v>91027.79355863489</v>
       </c>
       <c r="O6" t="n">
-        <v>39106.39223582683</v>
+        <v>39106.39223582707</v>
       </c>
       <c r="P6" t="n">
-        <v>91027.79355863495</v>
+        <v>91027.7935586352</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="F2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="G2" t="n">
         <v>324.1575019079524</v>
@@ -26707,13 +26707,13 @@
         <v>324.1575019079524</v>
       </c>
       <c r="J2" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="K2" t="n">
         <v>173.4846907110956</v>
       </c>
       <c r="L2" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="M2" t="n">
         <v>217.2033884337817</v>
@@ -26725,7 +26725,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="P2" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="3">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="F4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="G4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="I4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="J4" t="n">
-        <v>605.7782291286874</v>
+        <v>605.7782291286881</v>
       </c>
       <c r="K4" t="n">
-        <v>605.7782291286874</v>
+        <v>605.7782291286873</v>
       </c>
       <c r="L4" t="n">
-        <v>605.7782291286874</v>
+        <v>605.7782291286873</v>
       </c>
       <c r="M4" t="n">
         <v>459.3282522180198</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>108.5829390575859</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>64.90175165350962</v>
+      </c>
+      <c r="K2" t="n">
         <v>6.926151959655375e-14</v>
-      </c>
-      <c r="G2" t="n">
-        <v>108.582939057586</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>64.90175165350971</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.083981016614975e-14</v>
       </c>
       <c r="L2" t="n">
         <v>108.5829390575859</v>
       </c>
       <c r="M2" t="n">
-        <v>43.71869772268616</v>
+        <v>43.71869772268613</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350971</v>
+        <v>64.90175165350959</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>459.3282522180198</v>
+        <v>459.3282522180206</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>108.5829390575859</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>64.90175165350962</v>
+      </c>
+      <c r="P2" t="n">
         <v>6.926151959655375e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>108.582939057586</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>64.90175165350971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.083981016614975e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="C11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="D11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="E11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="F11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="G11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="H11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="I11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="J11" t="n">
-        <v>215.5745628503664</v>
+        <v>189.2385260209393</v>
       </c>
       <c r="K11" t="n">
         <v>112.5514835405493</v>
       </c>
       <c r="L11" t="n">
-        <v>215.5745628503664</v>
+        <v>109.3445309366637</v>
       </c>
       <c r="M11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="N11" t="n">
-        <v>111.4368362915958</v>
+        <v>93.43707277407925</v>
       </c>
       <c r="O11" t="n">
-        <v>215.5745628503664</v>
+        <v>99.1743214526286</v>
       </c>
       <c r="P11" t="n">
-        <v>112.9582042322147</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.3626208658184</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="R11" t="n">
-        <v>142.4367897946829</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="S11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="T11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="U11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="V11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="W11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="X11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J12" t="n">
-        <v>76.71955400614102</v>
+        <v>112.0039059477498</v>
       </c>
       <c r="K12" t="n">
         <v>66.98372024565218</v>
@@ -28199,7 +28199,7 @@
         <v>52.05064111562933</v>
       </c>
       <c r="M12" t="n">
-        <v>80.13867647768984</v>
+        <v>44.85432453608085</v>
       </c>
       <c r="N12" t="n">
         <v>34.21620827668139</v>
@@ -28223,13 +28223,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U12" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="V12" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="W12" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28263,10 +28263,10 @@
         <v>166.9968542415478</v>
       </c>
       <c r="H13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="I13" t="n">
-        <v>135.7331106864345</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="J13" t="n">
         <v>86.66140878686465</v>
@@ -28281,10 +28281,10 @@
         <v>76.24414745277534</v>
       </c>
       <c r="N13" t="n">
-        <v>214.4324818817892</v>
+        <v>67.98250497112164</v>
       </c>
       <c r="O13" t="n">
-        <v>80.23214212082287</v>
+        <v>79.46394233070274</v>
       </c>
       <c r="P13" t="n">
         <v>83.63942497583896</v>
@@ -28293,28 +28293,28 @@
         <v>103.5288848663845</v>
       </c>
       <c r="R13" t="n">
-        <v>137.5187009483811</v>
+        <v>212.9700230516725</v>
       </c>
       <c r="S13" t="n">
-        <v>215.5745628503664</v>
+        <v>207.4999652839304</v>
       </c>
       <c r="T13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="U13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="V13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="W13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="X13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="C14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="D14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="E14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="F14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="G14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="H14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="I14" t="n">
-        <v>151.0036693235603</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="J14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="K14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="L14" t="n">
         <v>109.3445309366637</v>
       </c>
       <c r="M14" t="n">
-        <v>215.5745628503664</v>
+        <v>128.3053188503931</v>
       </c>
       <c r="N14" t="n">
-        <v>215.5745628503664</v>
+        <v>93.43707277407925</v>
       </c>
       <c r="O14" t="n">
-        <v>215.5745628503664</v>
+        <v>99.1743214526286</v>
       </c>
       <c r="P14" t="n">
-        <v>112.9582042322147</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.3626208658184</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="R14" t="n">
-        <v>148.166781505875</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="S14" t="n">
         <v>173.4846907110956</v>
       </c>
       <c r="T14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="U14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="V14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="W14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="X14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
     </row>
     <row r="15">
@@ -28445,10 +28445,10 @@
         <v>49.53708892351371</v>
       </c>
       <c r="P15" t="n">
-        <v>55.62466529233114</v>
+        <v>65.93056747049039</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.4370050646066</v>
+        <v>78.15265312299755</v>
       </c>
       <c r="R15" t="n">
         <v>101.057477245434</v>
@@ -28460,19 +28460,19 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U15" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="V15" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="W15" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>215.5745628503665</v>
       </c>
     </row>
     <row r="16">
@@ -28512,7 +28512,7 @@
         <v>77.67194102076726</v>
       </c>
       <c r="L16" t="n">
-        <v>215.5745628503664</v>
+        <v>211.9597777417748</v>
       </c>
       <c r="M16" t="n">
         <v>76.24414745277534</v>
@@ -28521,7 +28521,7 @@
         <v>67.98250497112164</v>
       </c>
       <c r="O16" t="n">
-        <v>145.8304215576609</v>
+        <v>79.46394233070274</v>
       </c>
       <c r="P16" t="n">
         <v>83.63942497583896</v>
@@ -28530,28 +28530,28 @@
         <v>103.5288848663845</v>
       </c>
       <c r="R16" t="n">
-        <v>137.5187009483811</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="S16" t="n">
-        <v>215.5745628503664</v>
+        <v>207.4999652839304</v>
       </c>
       <c r="T16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="U16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="V16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="W16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="X16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>324.1575019079524</v>
       </c>
       <c r="I17" t="n">
-        <v>151.0036693235603</v>
+        <v>297.4536462342278</v>
       </c>
       <c r="J17" t="n">
-        <v>249.33164038113</v>
+        <v>213.6789821560812</v>
       </c>
       <c r="K17" t="n">
-        <v>259.0014604512169</v>
+        <v>112.5514835405493</v>
       </c>
       <c r="L17" t="n">
         <v>109.3445309366637</v>
@@ -28600,10 +28600,10 @@
         <v>93.43707277407925</v>
       </c>
       <c r="O17" t="n">
-        <v>135.3843611851737</v>
+        <v>99.1743214526286</v>
       </c>
       <c r="P17" t="n">
-        <v>259.4081811428823</v>
+        <v>112.9582042322147</v>
       </c>
       <c r="Q17" t="n">
         <v>124.3626208658184</v>
@@ -28612,13 +28612,13 @@
         <v>142.4367897946829</v>
       </c>
       <c r="S17" t="n">
-        <v>173.4846907110956</v>
+        <v>319.934667621763</v>
       </c>
       <c r="T17" t="n">
         <v>324.1575019079524</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2948039503587</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="V17" t="n">
         <v>324.1575019079524</v>
@@ -28819,7 +28819,7 @@
         <v>324.1575019079524</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4536462342279</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J20" t="n">
         <v>102.8816634704624</v>
@@ -28831,28 +28831,28 @@
         <v>109.3445309366637</v>
       </c>
       <c r="M20" t="n">
-        <v>95.67552786690364</v>
+        <v>242.1255047775711</v>
       </c>
       <c r="N20" t="n">
-        <v>162.1071809428837</v>
+        <v>239.8870496847467</v>
       </c>
       <c r="O20" t="n">
         <v>99.1743214526286</v>
       </c>
       <c r="P20" t="n">
-        <v>259.4081811428823</v>
+        <v>112.9582042322147</v>
       </c>
       <c r="Q20" t="n">
-        <v>270.812597776486</v>
+        <v>124.3626208658184</v>
       </c>
       <c r="R20" t="n">
         <v>142.4367897946829</v>
       </c>
       <c r="S20" t="n">
-        <v>173.4846907110956</v>
+        <v>284.2820093967143</v>
       </c>
       <c r="T20" t="n">
-        <v>219.8347355140993</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="U20" t="n">
         <v>324.1575019079524</v>
@@ -29056,7 +29056,7 @@
         <v>324.1575019079524</v>
       </c>
       <c r="I23" t="n">
-        <v>151.0036693235603</v>
+        <v>291.5364754499592</v>
       </c>
       <c r="J23" t="n">
         <v>102.8816634704624</v>
@@ -29065,19 +29065,19 @@
         <v>112.5514835405493</v>
       </c>
       <c r="L23" t="n">
-        <v>109.3445309366637</v>
+        <v>255.7945078473312</v>
       </c>
       <c r="M23" t="n">
-        <v>242.1255047775712</v>
+        <v>95.67552786690364</v>
       </c>
       <c r="N23" t="n">
-        <v>233.9698789004776</v>
+        <v>93.43707277407925</v>
       </c>
       <c r="O23" t="n">
-        <v>245.6242983632962</v>
+        <v>99.1743214526286</v>
       </c>
       <c r="P23" t="n">
-        <v>112.9582042322147</v>
+        <v>259.4081811428821</v>
       </c>
       <c r="Q23" t="n">
         <v>124.3626208658184</v>
@@ -29086,7 +29086,7 @@
         <v>142.4367897946829</v>
       </c>
       <c r="S23" t="n">
-        <v>319.9346676217631</v>
+        <v>319.934667621763</v>
       </c>
       <c r="T23" t="n">
         <v>219.8347355140993</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="D26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="E26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="G26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="H26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="K26" t="n">
-        <v>173.4846907110957</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M26" t="n">
-        <v>66.01309186185003</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>173.4846907110957</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q26" t="n">
-        <v>173.4846907110957</v>
+        <v>98.69129648180409</v>
       </c>
       <c r="R26" t="n">
-        <v>57.00544395980576</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="S26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="27">
@@ -29351,25 +29351,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C27" t="n">
-        <v>160.0866360314548</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.1624622715678</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="H27" t="n">
-        <v>96.24631459259477</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I27" t="n">
         <v>71.26452700773518</v>
@@ -29381,13 +29381,13 @@
         <v>66.98372024565218</v>
       </c>
       <c r="L27" t="n">
-        <v>173.4846907110957</v>
+        <v>52.05064111562933</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>44.85432453608085</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>34.21620827668139</v>
       </c>
       <c r="O27" t="n">
         <v>49.53708892351371</v>
@@ -29399,28 +29399,28 @@
         <v>78.15265312299755</v>
       </c>
       <c r="R27" t="n">
-        <v>173.4846907110957</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S27" t="n">
-        <v>146.0937828749041</v>
+        <v>146.4374032134049</v>
       </c>
       <c r="T27" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U27" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V27" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W27" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X27" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y27" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="28">
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
@@ -29454,10 +29454,10 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J28" t="n">
-        <v>42.93429506732431</v>
+        <v>86.66140878686465</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29469,37 +29469,37 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.58303897530764</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R28" t="n">
         <v>137.5187009483811</v>
       </c>
       <c r="S28" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T28" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U28" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V28" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W28" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X28" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y28" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="29">
@@ -29530,25 +29530,25 @@
         <v>173.4846907110956</v>
       </c>
       <c r="I29" t="n">
-        <v>151.0036693235603</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="K29" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>173.4846907110956</v>
       </c>
       <c r="M29" t="n">
-        <v>117.0861634549087</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>155.2484068739431</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>173.4846907110956</v>
@@ -29557,7 +29557,7 @@
         <v>173.4846907110956</v>
       </c>
       <c r="R29" t="n">
-        <v>57.00544395980576</v>
+        <v>152.8989380499571</v>
       </c>
       <c r="S29" t="n">
         <v>173.4846907110956</v>
@@ -29600,10 +29600,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="G30" t="n">
-        <v>127.1624622715678</v>
+        <v>172.3423702823383</v>
       </c>
       <c r="H30" t="n">
         <v>96.24631459259477</v>
@@ -29612,7 +29612,7 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.71955400614102</v>
       </c>
       <c r="K30" t="n">
         <v>66.98372024565218</v>
@@ -29621,13 +29621,13 @@
         <v>52.05064111562933</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>44.85432453608085</v>
       </c>
       <c r="N30" t="n">
-        <v>127.1917293617198</v>
+        <v>34.21620827668139</v>
       </c>
       <c r="O30" t="n">
-        <v>173.4846907110956</v>
+        <v>49.53708892351371</v>
       </c>
       <c r="P30" t="n">
         <v>55.62466529233114</v>
@@ -29636,7 +29636,7 @@
         <v>78.15265312299755</v>
       </c>
       <c r="R30" t="n">
-        <v>101.057477245434</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S30" t="n">
         <v>146.0937828749041</v>
@@ -29688,34 +29688,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I31" t="n">
-        <v>135.7331106864345</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="J31" t="n">
-        <v>42.93429506732431</v>
+        <v>130.7333909989285</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>77.67194102076726</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>74.84944336390262</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>76.24414745277534</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>83.63942497583896</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.58303897530764</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="R31" t="n">
-        <v>137.5187009483811</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S31" t="n">
         <v>173.4846907110956</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="C32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="D32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="E32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="F32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="G32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="H32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="I32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="J32" t="n">
-        <v>173.4846907110955</v>
+        <v>102.8816634704624</v>
       </c>
       <c r="K32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="L32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>117.0861634549087</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>57.33154962156652</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="O32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Q32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>57.00544395980576</v>
+        <v>169.2943237224393</v>
       </c>
       <c r="S32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="33">
@@ -29837,13 +29837,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>173.4846907110955</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.1624622715678</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="H33" t="n">
-        <v>173.4846907110955</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I33" t="n">
         <v>71.26452700773518</v>
@@ -29858,10 +29858,10 @@
         <v>52.05064111562933</v>
       </c>
       <c r="M33" t="n">
-        <v>44.85432453608085</v>
+        <v>76.18673653475919</v>
       </c>
       <c r="N33" t="n">
-        <v>133.7631243893293</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="O33" t="n">
         <v>49.53708892351371</v>
@@ -29870,7 +29870,7 @@
         <v>55.62466529233114</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>78.15265312299755</v>
       </c>
       <c r="R33" t="n">
         <v>101.057477245434</v>
@@ -29879,22 +29879,22 @@
         <v>146.0937828749041</v>
       </c>
       <c r="T33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -29928,13 +29928,13 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J34" t="n">
-        <v>42.93429506732431</v>
+        <v>86.66140878686465</v>
       </c>
       <c r="K34" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.58303897530764</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R34" t="n">
         <v>137.5187009483811</v>
       </c>
       <c r="S34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="I35" t="n">
-        <v>151.0036693235603</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="J35" t="n">
         <v>217.2033884337817</v>
@@ -30013,10 +30013,10 @@
         <v>217.2033884337817</v>
       </c>
       <c r="L35" t="n">
-        <v>164.6193768043145</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="M35" t="n">
-        <v>95.67552786690364</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="N35" t="n">
         <v>217.2033884337817</v>
@@ -30028,7 +30028,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.2033884337817</v>
+        <v>127.062676601519</v>
       </c>
       <c r="R35" t="n">
         <v>217.2033884337817</v>
@@ -30098,10 +30098,10 @@
         <v>44.85432453608085</v>
       </c>
       <c r="N36" t="n">
-        <v>65.44526606426328</v>
+        <v>34.21620827668139</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>49.53708892351371</v>
       </c>
       <c r="P36" t="n">
         <v>55.62466529233114</v>
@@ -30128,10 +30128,10 @@
         <v>217.2033884337817</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>200.5596006817005</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.5961130869169</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="37">
@@ -30141,19 +30141,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.2033884337817</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>217.2033884337817</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>217.2033884337817</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.9968542415478</v>
@@ -30168,22 +30168,22 @@
         <v>86.66140878686465</v>
       </c>
       <c r="K37" t="n">
-        <v>77.67194102076726</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>74.84944336390262</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>76.24414745277534</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>105.7839895692198</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>83.63942497583896</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>103.5288848663845</v>
@@ -30253,13 +30253,13 @@
         <v>217.2033884337817</v>
       </c>
       <c r="M38" t="n">
-        <v>120.3805732182706</v>
+        <v>95.67552786690364</v>
       </c>
       <c r="N38" t="n">
-        <v>93.43707277407925</v>
+        <v>211.7769944998337</v>
       </c>
       <c r="O38" t="n">
-        <v>217.2033884337817</v>
+        <v>168.7304728336983</v>
       </c>
       <c r="P38" t="n">
         <v>217.2033884337817</v>
@@ -30332,10 +30332,10 @@
         <v>52.05064111562933</v>
       </c>
       <c r="M39" t="n">
-        <v>76.08338232366276</v>
+        <v>44.85432453608085</v>
       </c>
       <c r="N39" t="n">
-        <v>34.21620827668139</v>
+        <v>65.44526606426328</v>
       </c>
       <c r="O39" t="n">
         <v>49.53708892351371</v>
@@ -30399,19 +30399,19 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I40" t="n">
-        <v>190.2652587924885</v>
+        <v>201.3964755103317</v>
       </c>
       <c r="J40" t="n">
         <v>86.66140878686465</v>
       </c>
       <c r="K40" t="n">
-        <v>77.67194102076726</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="L40" t="n">
-        <v>74.84944336390262</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>217.2033884337817</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,16 +30420,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>83.63942497583896</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.58303897530764</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R40" t="n">
         <v>137.5187009483811</v>
       </c>
       <c r="S40" t="n">
-        <v>217.2033884337817</v>
+        <v>207.4999652839304</v>
       </c>
       <c r="T40" t="n">
         <v>217.2033884337817</v>
@@ -30478,7 +30478,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="I41" t="n">
-        <v>217.2033884337817</v>
+        <v>212.4529578135057</v>
       </c>
       <c r="J41" t="n">
         <v>217.2033884337817</v>
@@ -30487,7 +30487,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="L41" t="n">
-        <v>63.7193627277442</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="M41" t="n">
         <v>217.2033884337817</v>
@@ -30496,10 +30496,10 @@
         <v>217.2033884337817</v>
       </c>
       <c r="O41" t="n">
-        <v>105.6420679977242</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="P41" t="n">
-        <v>217.2033884337817</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>217.2033884337817</v>
@@ -30551,7 +30551,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>158.3915200591497</v>
+        <v>127.1624622715678</v>
       </c>
       <c r="H42" t="n">
         <v>96.24631459259477</v>
@@ -30560,7 +30560,7 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J42" t="n">
-        <v>76.71955400614102</v>
+        <v>107.948611793723</v>
       </c>
       <c r="K42" t="n">
         <v>66.98372024565218</v>
@@ -30642,25 +30642,25 @@
         <v>86.66140878686465</v>
       </c>
       <c r="K43" t="n">
-        <v>77.67194102076726</v>
+        <v>140.5128081878001</v>
       </c>
       <c r="L43" t="n">
-        <v>74.84944336390262</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="M43" t="n">
-        <v>132.2180762270269</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>217.2033884337817</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>79.46394233070274</v>
       </c>
       <c r="P43" t="n">
-        <v>83.63942497583896</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.58303897530764</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R43" t="n">
         <v>137.5187009483811</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="C44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="D44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="E44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="F44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="G44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="H44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="I44" t="n">
-        <v>151.0036693235603</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="J44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="K44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="L44" t="n">
-        <v>109.3445309366637</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="M44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="N44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="O44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P44" t="n">
-        <v>217.2033884337817</v>
+        <v>127.0626766015169</v>
       </c>
       <c r="Q44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="R44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="S44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="45">
@@ -30800,7 +30800,7 @@
         <v>76.71955400614102</v>
       </c>
       <c r="K45" t="n">
-        <v>15.24946289784995</v>
+        <v>66.98372024565218</v>
       </c>
       <c r="L45" t="n">
         <v>52.05064111562933</v>
@@ -30809,7 +30809,7 @@
         <v>44.85432453608085</v>
       </c>
       <c r="N45" t="n">
-        <v>65.44526606426342</v>
+        <v>65.44526606426345</v>
       </c>
       <c r="O45" t="n">
         <v>49.53708892351371</v>
@@ -30833,10 +30833,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V45" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W45" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -30879,10 +30879,10 @@
         <v>86.66140878686465</v>
       </c>
       <c r="K46" t="n">
-        <v>77.67194102076726</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>74.84944336390262</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>217.2033884337817</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30906,22 +30906,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
   </sheetData>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>64.57089352680612</v>
+        <v>64.57089352680617</v>
       </c>
       <c r="J11" t="n">
-        <v>112.692899379904</v>
+        <v>86.35686255047692</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>106.2300319137027</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>119.8990349834628</v>
+        <v>119.8990349834629</v>
       </c>
       <c r="N11" t="n">
-        <v>17.99976351751658</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>116.4002413977378</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.6163586181518</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.21194198454812</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.13777305568358</v>
       </c>
       <c r="S11" t="n">
-        <v>42.08987213927089</v>
+        <v>42.08987213927094</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>35.28435194160882</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>35.28435194160899</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35559,10 +35559,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>59.87342201263403</v>
+        <v>59.87342201263409</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.84145216393205</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35577,10 +35577,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7681997901201355</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35589,10 +35589,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>75.45132210329135</v>
       </c>
       <c r="S13" t="n">
-        <v>8.074597566436049</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>64.57089352680617</v>
       </c>
       <c r="J14" t="n">
-        <v>112.692899379904</v>
+        <v>112.6928993799041</v>
       </c>
       <c r="K14" t="n">
-        <v>103.0230793098171</v>
+        <v>103.0230793098172</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>119.8990349834628</v>
+        <v>32.62979098348941</v>
       </c>
       <c r="N14" t="n">
-        <v>122.1374900762872</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>116.4002413977378</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.6163586181518</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>91.21194198454812</v>
       </c>
       <c r="R14" t="n">
-        <v>5.729991711192072</v>
+        <v>73.13777305568358</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>10.30590217815925</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.28435194160907</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35768,7 +35768,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>24.97844976344956</v>
       </c>
     </row>
     <row r="16">
@@ -35808,7 +35808,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>140.7251194864638</v>
+        <v>137.1103343778721</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>66.36647922695813</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35826,10 +35826,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.05586190198535</v>
       </c>
       <c r="S16" t="n">
-        <v>8.074597566436021</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="J17" t="n">
-        <v>146.4499769106676</v>
+        <v>110.7973186856188</v>
       </c>
       <c r="K17" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>36.21003973254513</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="T17" t="n">
         <v>104.3227663938531</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>71.8626979575937</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36127,28 +36127,28 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="N20" t="n">
-        <v>68.67010816880448</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>110.7973186856188</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>104.3227663938531</v>
       </c>
       <c r="U20" t="n">
         <v>71.8626979575937</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>140.5328061263988</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,19 +36361,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="M23" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>140.5328061263983</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106675</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.48102138753532</v>
+        <v>22.48102138753518</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>70.60302724063311</v>
       </c>
       <c r="K26" t="n">
-        <v>482.3222435130606</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>380.7742540324766</v>
+        <v>487.2594377750834</v>
       </c>
       <c r="M26" t="n">
-        <v>554.7051575356287</v>
+        <v>488.6920656737786</v>
       </c>
       <c r="N26" t="n">
-        <v>80.0476179370164</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>74.31036925846705</v>
+        <v>569.3506049000358</v>
       </c>
       <c r="P26" t="n">
-        <v>478.8648071018084</v>
+        <v>478.8648071018083</v>
       </c>
       <c r="Q26" t="n">
-        <v>325.1315577031534</v>
+        <v>250.3381634738618</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>31.04790091641259</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36647,25 +36647,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>15.65944235764724</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>13.39805467964067</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>36.03444007140547</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>27.92696086739804</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>46.32222843952768</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>77.23837611850074</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>121.4340495954663</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>23.06185981149179</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36695,10 +36695,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>72.42721346566165</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>0.3436203385007562</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>234.5796459383766</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>136.3676686401181</v>
       </c>
       <c r="M28" t="n">
-        <v>155.818411729504</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>135.7635085682707</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>132.4902239449445</v>
+        <v>144.9939369966403</v>
       </c>
       <c r="P28" t="n">
-        <v>91.86910733241446</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>22.48102138753524</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9439362532335</v>
+        <v>70.60302724063317</v>
       </c>
       <c r="K29" t="n">
-        <v>60.9332071705463</v>
+        <v>308.8375528019649</v>
       </c>
       <c r="L29" t="n">
-        <v>425.1424644195916</v>
+        <v>155.4919799426081</v>
       </c>
       <c r="M29" t="n">
-        <v>605.7782291286874</v>
+        <v>488.6920656737786</v>
       </c>
       <c r="N29" t="n">
-        <v>605.7782291286874</v>
+        <v>475.1139289615001</v>
       </c>
       <c r="O29" t="n">
-        <v>56.07408542131454</v>
+        <v>395.8659141889403</v>
       </c>
       <c r="P29" t="n">
-        <v>478.8648071018083</v>
+        <v>60.52648647888091</v>
       </c>
       <c r="Q29" t="n">
-        <v>49.12206984527718</v>
+        <v>325.1315577031532</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>95.89349409015138</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36896,10 +36896,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>40.13783064147117</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>45.17990801077046</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>92.97552108503838</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>123.9476017875819</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>131.6053842203786</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36984,34 +36984,34 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>37.75158002466112</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.7990959316042</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>135.7635085682714</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>155.818411729504</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>105.5021857399739</v>
       </c>
       <c r="O31" t="n">
-        <v>132.4902239449445</v>
+        <v>94.02074838039283</v>
       </c>
       <c r="P31" t="n">
-        <v>91.86910733241446</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>154.9016517357879</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>35.96598976271441</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>22.48102138753521</v>
+        <v>22.48102138753524</v>
       </c>
       <c r="J32" t="n">
-        <v>290.4286269643291</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>60.93320717054627</v>
+        <v>482.3222435130605</v>
       </c>
       <c r="L32" t="n">
-        <v>524.5337812148591</v>
+        <v>433.6150479789218</v>
       </c>
       <c r="M32" t="n">
-        <v>605.7782291286874</v>
+        <v>488.6920656737786</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>80.04761793701631</v>
       </c>
       <c r="O32" t="n">
-        <v>569.3506049000358</v>
+        <v>234.1098239572104</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>478.8648071018083</v>
       </c>
       <c r="Q32" t="n">
-        <v>325.1315577031532</v>
+        <v>151.6468669920577</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>26.85753392775636</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37133,13 +37133,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>40.13783064147114</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>46.32222843952773</v>
       </c>
       <c r="H33" t="n">
-        <v>77.23837611850077</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>31.33241199867834</v>
       </c>
       <c r="N33" t="n">
-        <v>99.54691611264796</v>
+        <v>139.2684824344142</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>95.81274969032827</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>209.9663369190944</v>
       </c>
       <c r="M34" t="n">
-        <v>155.818411729504</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>155.3805269266787</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>17.06045589620929</v>
+        <v>305.97491465604</v>
       </c>
       <c r="P34" t="n">
-        <v>91.86910733241446</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>66.19971911022137</v>
       </c>
       <c r="J35" t="n">
-        <v>334.1473246870152</v>
+        <v>114.3217249633193</v>
       </c>
       <c r="K35" t="n">
-        <v>104.6519048932324</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="L35" t="n">
-        <v>106.0645295491208</v>
+        <v>107.858857497118</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>121.5278605668781</v>
       </c>
       <c r="N35" t="n">
-        <v>123.7663156597024</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="O35" t="n">
         <v>118.0290669811531</v>
       </c>
       <c r="P35" t="n">
-        <v>459.3282522180198</v>
+        <v>250.9752059585301</v>
       </c>
       <c r="Q35" t="n">
-        <v>368.8502554258394</v>
+        <v>2.700055735700587</v>
       </c>
       <c r="R35" t="n">
-        <v>160.197944473976</v>
+        <v>74.76659863909877</v>
       </c>
       <c r="S35" t="n">
         <v>43.71869772268614</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>31.2290577875819</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37424,10 +37424,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>4.621782440717147</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>26.60727534686475</v>
       </c>
     </row>
     <row r="37">
@@ -37437,19 +37437,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.48357343624568</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.66221419326681</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>66.24754000930105</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>61.09495522728103</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>37.80148459809813</v>
+        <v>144.0998570096306</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>334.1473246870152</v>
       </c>
       <c r="K38" t="n">
-        <v>135.7191281433489</v>
+        <v>104.6519048932324</v>
       </c>
       <c r="L38" t="n">
         <v>107.858857497118</v>
       </c>
       <c r="M38" t="n">
-        <v>24.705045351367</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="O38" t="n">
-        <v>118.0290669811531</v>
+        <v>69.55615138106972</v>
       </c>
       <c r="P38" t="n">
-        <v>459.3282522180198</v>
+        <v>104.245184201567</v>
       </c>
       <c r="Q38" t="n">
         <v>368.8502554258394</v>
@@ -37628,10 +37628,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>31.2290577875819</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37695,19 +37695,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>54.53214810605401</v>
+        <v>65.66336482389723</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>139.5314474130144</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>140.9592409810064</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>9.703423149851298</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>66.19971911022137</v>
+        <v>61.44928848994536</v>
       </c>
       <c r="J41" t="n">
-        <v>114.3217249633193</v>
+        <v>334.1473246870152</v>
       </c>
       <c r="K41" t="n">
-        <v>459.3282522180198</v>
+        <v>104.6519048932324</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>107.8588574971179</v>
       </c>
       <c r="M41" t="n">
-        <v>121.5278605668781</v>
+        <v>121.527860566878</v>
       </c>
       <c r="N41" t="n">
         <v>459.3282522180198</v>
       </c>
       <c r="O41" t="n">
-        <v>6.467746545095594</v>
+        <v>418.4647393287883</v>
       </c>
       <c r="P41" t="n">
-        <v>104.245184201567</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>368.8502554258394</v>
+        <v>92.84076756796328</v>
       </c>
       <c r="R41" t="n">
-        <v>74.76659863909877</v>
+        <v>74.76659863909875</v>
       </c>
       <c r="S41" t="n">
-        <v>43.71869772268614</v>
+        <v>43.71869772268611</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37847,7 +37847,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>31.2290577875819</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>31.22905778758196</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>62.84086716703283</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>142.353945069879</v>
       </c>
       <c r="M43" t="n">
-        <v>55.97392877425155</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>149.2208834626601</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38011,16 +38011,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>66.19971911022128</v>
       </c>
       <c r="J44" t="n">
-        <v>334.1473246870152</v>
+        <v>114.3217249633192</v>
       </c>
       <c r="K44" t="n">
-        <v>444.2716418919281</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>107.8588574971179</v>
       </c>
       <c r="M44" t="n">
         <v>121.527860566878</v>
@@ -38029,19 +38029,19 @@
         <v>123.7663156597024</v>
       </c>
       <c r="O44" t="n">
-        <v>118.0290669811531</v>
+        <v>118.029066981153</v>
       </c>
       <c r="P44" t="n">
-        <v>104.245184201567</v>
+        <v>432.4427929922297</v>
       </c>
       <c r="Q44" t="n">
-        <v>368.8502554258394</v>
+        <v>92.84076756796323</v>
       </c>
       <c r="R44" t="n">
-        <v>160.1979444739759</v>
+        <v>138.7202363314547</v>
       </c>
       <c r="S44" t="n">
-        <v>43.71869772268611</v>
+        <v>43.71869772268605</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>31.22905778758204</v>
+        <v>31.22905778758207</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38178,19 +38178,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>136.3676686401181</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>68.82714359679412</v>
       </c>
       <c r="O46" t="n">
-        <v>137.7394461030789</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>67.45536613383297</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
